--- a/results/all_tes.xlsx
+++ b/results/all_tes.xlsx
@@ -1012,7 +1012,7 @@
         <v>-0.0236249393048537</v>
       </c>
       <c r="J13">
-        <v>-2.586422256237522e-06</v>
+        <v>-2.586422256237522E-06</v>
       </c>
       <c r="K13">
         <v>0.03826173515985398</v>
@@ -1344,34 +1344,34 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>-0.007147526069339619</v>
+        <v>0.01048301604195529</v>
       </c>
       <c r="E20">
-        <v>916.4259858227399</v>
+        <v>0.007355076938991207</v>
       </c>
       <c r="F20">
-        <v>-7.799348970798535e-06</v>
+        <v>1.425276190706048</v>
       </c>
       <c r="G20">
-        <v>0.9999937770198719</v>
+        <v>0.1540773797594325</v>
       </c>
       <c r="H20">
-        <v>8.977890504992044e-06</v>
+        <v>2.698273020862664</v>
       </c>
       <c r="I20">
-        <v>-1796.169074235253</v>
+        <v>-0.003932669861988576</v>
       </c>
       <c r="J20">
-        <v>1796.154779183115</v>
+        <v>0.02489870194589916</v>
       </c>
       <c r="K20">
-        <v>0.04955529494495609</v>
+        <v>0.08830901329575819</v>
       </c>
       <c r="L20">
-        <v>0.02705945534375906</v>
+        <v>0.1054009814361645</v>
       </c>
       <c r="M20">
-        <v>0.02705945534375906</v>
+        <v>0.1054009814361645</v>
       </c>
       <c r="N20" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         <v>-0.006364765220140107</v>
       </c>
       <c r="J25">
-        <v>4.461295116190908e-06</v>
+        <v>4.461295116190908E-06</v>
       </c>
       <c r="K25">
         <v>0.06406906383802018</v>
@@ -1644,38 +1644,38 @@
         <v>1</v>
       </c>
       <c r="D26">
-        <v>-0.003073930558149832</v>
+        <v>-0.001804523180212462</v>
       </c>
       <c r="E26">
-        <v>0.006575447341458189</v>
+        <v>0.001506171068079768</v>
       </c>
       <c r="F26">
-        <v>-0.4674861493861723</v>
+        <v>-1.198086471354855</v>
       </c>
       <c r="G26">
-        <v>0.6401520993048759</v>
+        <v>0.2308833550360551</v>
       </c>
       <c r="H26">
-        <v>0.6435133665836072</v>
+        <v>2.114763925554109</v>
       </c>
       <c r="I26">
-        <v>-0.01596157052964753</v>
+        <v>-0.004756564228205032</v>
       </c>
       <c r="J26">
-        <v>0.009813709413347861</v>
+        <v>0.001147517867780108</v>
       </c>
       <c r="K26">
-        <v>-0.004909041780420016</v>
+        <v>0.05483135024086018</v>
       </c>
       <c r="L26">
-        <v>0.008535668571705603</v>
+        <v>0.06139172881079504</v>
       </c>
       <c r="M26">
-        <v>0.008535668571705603</v>
+        <v>0.06139172881079504</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>JAM</t>
+          <t>IND</t>
         </is>
       </c>
     </row>
@@ -1694,38 +1694,38 @@
         <v>1</v>
       </c>
       <c r="D27">
-        <v>-0.001206259091419361</v>
+        <v>-0.003073930558149832</v>
       </c>
       <c r="E27">
-        <v>0.001191096723564259</v>
+        <v>0.006575447341458189</v>
       </c>
       <c r="F27">
-        <v>-1.012729753642282</v>
+        <v>-0.4674861493861723</v>
       </c>
       <c r="G27">
-        <v>0.3111892619230247</v>
+        <v>0.6401520993048759</v>
       </c>
       <c r="H27">
-        <v>1.684135816175346</v>
+        <v>0.6435133665836072</v>
       </c>
       <c r="I27">
-        <v>-0.003540765771708968</v>
+        <v>-0.01596157052964753</v>
       </c>
       <c r="J27">
-        <v>0.001128247588870246</v>
+        <v>0.009813709413347861</v>
       </c>
       <c r="K27">
-        <v>0.0413490466972342</v>
+        <v>-0.004909041780420016</v>
       </c>
       <c r="L27">
-        <v>0.03272460352263788</v>
+        <v>0.008535668571705603</v>
       </c>
       <c r="M27">
-        <v>0.03272460352263788</v>
+        <v>0.008535668571705603</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>KEN</t>
+          <t>JAM</t>
         </is>
       </c>
     </row>
@@ -1744,38 +1744,38 @@
         <v>1</v>
       </c>
       <c r="D28">
-        <v>0.006030756490502419</v>
+        <v>-0.001206259091419361</v>
       </c>
       <c r="E28">
-        <v>0.006695203546289725</v>
+        <v>0.001191096723564259</v>
       </c>
       <c r="F28">
-        <v>0.9007577512478285</v>
+        <v>-1.012729753642282</v>
       </c>
       <c r="G28">
-        <v>0.3677171353449687</v>
+        <v>0.3111892619230247</v>
       </c>
       <c r="H28">
-        <v>1.443331688263995</v>
+        <v>1.684135816175346</v>
       </c>
       <c r="I28">
-        <v>-0.007091601329390286</v>
+        <v>-0.003540765771708968</v>
       </c>
       <c r="J28">
-        <v>0.01915311431039513</v>
+        <v>0.001128247588870246</v>
       </c>
       <c r="K28">
-        <v>0.01392643987871444</v>
+        <v>0.0413490466972342</v>
       </c>
       <c r="L28">
-        <v>0.02247852930202823</v>
+        <v>0.03272460352263788</v>
       </c>
       <c r="M28">
-        <v>0.02247852930202823</v>
+        <v>0.03272460352263788</v>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>KGZ</t>
+          <t>KEN</t>
         </is>
       </c>
     </row>
@@ -1794,38 +1794,38 @@
         <v>1</v>
       </c>
       <c r="D29">
-        <v>0.0009597485447884444</v>
+        <v>0.006030756490502419</v>
       </c>
       <c r="E29">
-        <v>0.002202203654352828</v>
+        <v>0.006695203546289725</v>
       </c>
       <c r="F29">
-        <v>0.4358128018230404</v>
+        <v>0.9007577512478285</v>
       </c>
       <c r="G29">
-        <v>0.6629725548401466</v>
+        <v>0.3677171353449687</v>
       </c>
       <c r="H29">
-        <v>0.5929789467449218</v>
+        <v>1.443331688263995</v>
       </c>
       <c r="I29">
-        <v>-0.003356491304365591</v>
+        <v>-0.007091601329390286</v>
       </c>
       <c r="J29">
-        <v>0.00527598839394248</v>
+        <v>0.01915311431039513</v>
       </c>
       <c r="K29">
-        <v>0.04406966107107104</v>
+        <v>0.01392643987871444</v>
       </c>
       <c r="L29">
-        <v>0.06036930661898569</v>
+        <v>0.02247852930202823</v>
       </c>
       <c r="M29">
-        <v>0.06036930661898569</v>
+        <v>0.02247852930202823</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>KGZ</t>
         </is>
       </c>
     </row>
@@ -1844,38 +1844,38 @@
         <v>1</v>
       </c>
       <c r="D30">
-        <v>-0.002473485946765719</v>
+        <v>0.0009597485447884444</v>
       </c>
       <c r="E30">
-        <v>0.003510429422047331</v>
+        <v>0.002202203654352828</v>
       </c>
       <c r="F30">
-        <v>-0.7046106471279368</v>
+        <v>0.4358128018230404</v>
       </c>
       <c r="G30">
-        <v>0.4810525707667296</v>
+        <v>0.6629725548401466</v>
       </c>
       <c r="H30">
-        <v>1.055733530538394</v>
+        <v>0.5929789467449218</v>
       </c>
       <c r="I30">
-        <v>-0.009353801184248244</v>
+        <v>-0.003356491304365591</v>
       </c>
       <c r="J30">
-        <v>0.004406829290716805</v>
+        <v>0.00527598839394248</v>
       </c>
       <c r="K30">
-        <v>0.06491171519842766</v>
+        <v>0.04406966107107104</v>
       </c>
       <c r="L30">
-        <v>0.06461982845199922</v>
+        <v>0.06036930661898569</v>
       </c>
       <c r="M30">
-        <v>0.06461982845199922</v>
+        <v>0.06036930661898569</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>LAO</t>
+          <t>KHM</t>
         </is>
       </c>
     </row>
@@ -1894,38 +1894,38 @@
         <v>1</v>
       </c>
       <c r="D31">
-        <v>-0.001668412928721905</v>
+        <v>-0.002473485946765719</v>
       </c>
       <c r="E31">
-        <v>0.002502741256891461</v>
+        <v>0.003510429422047331</v>
       </c>
       <c r="F31">
-        <v>-0.6666342052450772</v>
+        <v>-0.7046106471279368</v>
       </c>
       <c r="G31">
-        <v>0.5050058147910211</v>
+        <v>0.4810525707667296</v>
       </c>
       <c r="H31">
-        <v>0.9856280952964483</v>
+        <v>1.055733530538394</v>
       </c>
       <c r="I31">
-        <v>-0.006573695654851674</v>
+        <v>-0.009353801184248244</v>
       </c>
       <c r="J31">
-        <v>0.003236869797407865</v>
+        <v>0.004406829290716805</v>
       </c>
       <c r="K31">
-        <v>0.01332140117327121</v>
+        <v>0.06491171519842766</v>
       </c>
       <c r="L31">
-        <v>0.009558923074221553</v>
+        <v>0.06461982845199922</v>
       </c>
       <c r="M31">
-        <v>0.009558923074221553</v>
+        <v>0.06461982845199922</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>LSO</t>
+          <t>LAO</t>
         </is>
       </c>
     </row>
@@ -1944,38 +1944,38 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>-0.01152471444706588</v>
+        <v>-0.001668412928721905</v>
       </c>
       <c r="E32">
-        <v>0.003591558395084402</v>
+        <v>0.002502741256891461</v>
       </c>
       <c r="F32">
-        <v>-3.208833932044435</v>
+        <v>-0.6666342052450772</v>
       </c>
       <c r="G32">
-        <v>0.001332744456323897</v>
+        <v>0.5050058147910211</v>
       </c>
       <c r="H32">
-        <v>9.551384103587775</v>
+        <v>0.9856280952964483</v>
       </c>
       <c r="I32">
-        <v>-0.01856403954980378</v>
+        <v>-0.006573695654851674</v>
       </c>
       <c r="J32">
-        <v>-0.004485389344327977</v>
+        <v>0.003236869797407865</v>
       </c>
       <c r="K32">
-        <v>0.004553579375143366</v>
+        <v>0.01332140117327121</v>
       </c>
       <c r="L32">
-        <v>-0.001894929137511354</v>
+        <v>0.009558923074221553</v>
       </c>
       <c r="M32">
-        <v>-0.001894929137511354</v>
+        <v>0.009558923074221553</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>MAR</t>
+          <t>LSO</t>
         </is>
       </c>
     </row>
@@ -1994,38 +1994,38 @@
         <v>1</v>
       </c>
       <c r="D33">
-        <v>-0.02403585103797973</v>
+        <v>-0.01152471444706588</v>
       </c>
       <c r="E33">
-        <v>0.009312765825592751</v>
+        <v>0.003591558395084402</v>
       </c>
       <c r="F33">
-        <v>-2.580957310440035</v>
+        <v>-3.208833932044435</v>
       </c>
       <c r="G33">
-        <v>0.00985267645485409</v>
+        <v>0.001332744456323897</v>
       </c>
       <c r="H33">
-        <v>6.665268602363091</v>
+        <v>9.551384103587775</v>
       </c>
       <c r="I33">
-        <v>-0.04228853665259694</v>
+        <v>-0.01856403954980378</v>
       </c>
       <c r="J33">
-        <v>-0.005783165423362525</v>
+        <v>-0.004485389344327977</v>
       </c>
       <c r="K33">
-        <v>0.09798440314869367</v>
+        <v>0.004553579375143366</v>
       </c>
       <c r="L33">
-        <v>0.05740979949862278</v>
+        <v>-0.001894929137511354</v>
       </c>
       <c r="M33">
-        <v>0.05740979949862278</v>
+        <v>-0.001894929137511354</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>MDA</t>
+          <t>MAR</t>
         </is>
       </c>
     </row>
@@ -2044,38 +2044,38 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <v>0.006012964256647825</v>
+        <v>-0.02403585103797973</v>
       </c>
       <c r="E34">
-        <v>0.00124982217231097</v>
+        <v>0.009312765825592751</v>
       </c>
       <c r="F34">
-        <v>4.811055836471214</v>
+        <v>-2.580957310440035</v>
       </c>
       <c r="G34">
-        <v>1.501350634998886e-06</v>
+        <v>0.00985267645485409</v>
       </c>
       <c r="H34">
-        <v>19.34530761681684</v>
+        <v>6.665268602363091</v>
       </c>
       <c r="I34">
-        <v>0.00356335781183871</v>
+        <v>-0.04228853665259694</v>
       </c>
       <c r="J34">
-        <v>0.008462570701456939</v>
+        <v>-0.005783165423362525</v>
       </c>
       <c r="K34">
-        <v>0.07411367144886272</v>
+        <v>0.09798440314869367</v>
       </c>
       <c r="L34">
-        <v>0.06008376229663782</v>
+        <v>0.05740979949862278</v>
       </c>
       <c r="M34">
-        <v>0.06008376229663782</v>
+        <v>0.05740979949862278</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>MDA</t>
         </is>
       </c>
     </row>
@@ -2094,38 +2094,38 @@
         <v>1</v>
       </c>
       <c r="D35">
-        <v>0.008430719726560549</v>
+        <v>0.006012964256647825</v>
       </c>
       <c r="E35">
-        <v>0.001217923184694858</v>
+        <v>0.00124982217231097</v>
       </c>
       <c r="F35">
-        <v>6.922209735807602</v>
+        <v>4.811055836471214</v>
       </c>
       <c r="G35">
-        <v>4.446522450739435e-12</v>
+        <v>1.501350634998886E-06</v>
       </c>
       <c r="H35">
-        <v>37.71045966873409</v>
+        <v>19.34530761681684</v>
       </c>
       <c r="I35">
-        <v>0.006043634148622303</v>
+        <v>0.00356335781183871</v>
       </c>
       <c r="J35">
-        <v>0.0108178053044988</v>
+        <v>0.008462570701456939</v>
       </c>
       <c r="K35">
-        <v>0.04242171004092339</v>
+        <v>0.07411367144886272</v>
       </c>
       <c r="L35">
-        <v>0.05599931551393145</v>
+        <v>0.06008376229663782</v>
       </c>
       <c r="M35">
-        <v>0.05599931551393145</v>
+        <v>0.06008376229663782</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>MLI</t>
+          <t>MDG</t>
         </is>
       </c>
     </row>
@@ -2144,38 +2144,38 @@
         <v>1</v>
       </c>
       <c r="D36">
-        <v>0.006558187953480963</v>
+        <v>0.008430719726560549</v>
       </c>
       <c r="E36">
-        <v>0.003865132774886928</v>
+        <v>0.001217923184694858</v>
       </c>
       <c r="F36">
-        <v>1.696756188064669</v>
+        <v>6.922209735807602</v>
       </c>
       <c r="G36">
-        <v>0.08974276492267064</v>
+        <v>4.446522450739435E-12</v>
       </c>
       <c r="H36">
-        <v>3.478060556476131</v>
+        <v>37.71045966873409</v>
       </c>
       <c r="I36">
-        <v>-0.001017333080762775</v>
+        <v>0.006043634148622303</v>
       </c>
       <c r="J36">
-        <v>0.0141337089877247</v>
+        <v>0.0108178053044988</v>
       </c>
       <c r="K36">
-        <v>0.008682435935288616</v>
+        <v>0.04242171004092339</v>
       </c>
       <c r="L36">
-        <v>-0.005214654600054457</v>
+        <v>0.05599931551393145</v>
       </c>
       <c r="M36">
-        <v>-0.005214654600054457</v>
+        <v>0.05599931551393145</v>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>MNG</t>
+          <t>MLI</t>
         </is>
       </c>
     </row>
@@ -2194,38 +2194,38 @@
         <v>1</v>
       </c>
       <c r="D37">
-        <v>-0.003150091270134393</v>
+        <v>0.006558187953480963</v>
       </c>
       <c r="E37">
-        <v>0.003134520495665605</v>
+        <v>0.003865132774886928</v>
       </c>
       <c r="F37">
-        <v>-1.004967514007427</v>
+        <v>1.696756188064669</v>
       </c>
       <c r="G37">
-        <v>0.3149124928283922</v>
+        <v>0.08974276492267064</v>
       </c>
       <c r="H37">
-        <v>1.666977103422095</v>
+        <v>3.478060556476131</v>
       </c>
       <c r="I37">
-        <v>-0.009293638550441616</v>
+        <v>-0.001017333080762775</v>
       </c>
       <c r="J37">
-        <v>0.002993456010172831</v>
+        <v>0.0141337089877247</v>
       </c>
       <c r="K37">
-        <v>0.1266027028114311</v>
+        <v>0.008682435935288616</v>
       </c>
       <c r="L37">
-        <v>0.120178751391427</v>
+        <v>-0.005214654600054457</v>
       </c>
       <c r="M37">
-        <v>0.120178751391427</v>
+        <v>-0.005214654600054457</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>MNG</t>
         </is>
       </c>
     </row>
@@ -2244,38 +2244,38 @@
         <v>1</v>
       </c>
       <c r="D38">
-        <v>-0.002829712981807085</v>
+        <v>-0.003150091270134393</v>
       </c>
       <c r="E38">
-        <v>0.001614205210729291</v>
+        <v>0.003134520495665605</v>
       </c>
       <c r="F38">
-        <v>-1.753006967762564</v>
+        <v>-1.004967514007427</v>
       </c>
       <c r="G38">
-        <v>0.07960081106956987</v>
+        <v>0.3149124928283922</v>
       </c>
       <c r="H38">
-        <v>3.651073059004734</v>
+        <v>1.666977103422095</v>
       </c>
       <c r="I38">
-        <v>-0.005993497058493384</v>
+        <v>-0.009293638550441616</v>
       </c>
       <c r="J38">
-        <v>0.0003340710948792134</v>
+        <v>0.002993456010172831</v>
       </c>
       <c r="K38">
-        <v>0.05468501304415441</v>
+        <v>0.1266027028114311</v>
       </c>
       <c r="L38">
-        <v>0.06260292641352744</v>
+        <v>0.120178751391427</v>
       </c>
       <c r="M38">
-        <v>0.06260292641352744</v>
+        <v>0.120178751391427</v>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>MRT</t>
+          <t>MOZ</t>
         </is>
       </c>
     </row>
@@ -2294,38 +2294,38 @@
         <v>1</v>
       </c>
       <c r="D39">
-        <v>0.001543627083062051</v>
+        <v>-0.002829712981807085</v>
       </c>
       <c r="E39">
-        <v>0.001418687230415265</v>
+        <v>0.001614205210729291</v>
       </c>
       <c r="F39">
-        <v>1.088067228609801</v>
+        <v>-1.753006967762564</v>
       </c>
       <c r="G39">
-        <v>0.2765654297435132</v>
+        <v>0.07960081106956987</v>
       </c>
       <c r="H39">
-        <v>1.85430726180667</v>
+        <v>3.651073059004734</v>
       </c>
       <c r="I39">
-        <v>-0.001236948793878744</v>
+        <v>-0.005993497058493384</v>
       </c>
       <c r="J39">
-        <v>0.004324202960002847</v>
+        <v>0.0003340710948792134</v>
       </c>
       <c r="K39">
-        <v>0.05088090047104436</v>
+        <v>0.05468501304415441</v>
       </c>
       <c r="L39">
-        <v>0.06147841182155651</v>
+        <v>0.06260292641352744</v>
       </c>
       <c r="M39">
-        <v>0.06147841182155651</v>
+        <v>0.06260292641352744</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>MWI</t>
+          <t>MRT</t>
         </is>
       </c>
     </row>
@@ -2344,38 +2344,38 @@
         <v>1</v>
       </c>
       <c r="D40">
-        <v>-0.003300851329889245</v>
+        <v>0.001543627083062051</v>
       </c>
       <c r="E40">
-        <v>0.003900019451795778</v>
+        <v>0.001418687230415265</v>
       </c>
       <c r="F40">
-        <v>-0.8463679144906203</v>
+        <v>1.088067228609801</v>
       </c>
       <c r="G40">
-        <v>0.3973475318697988</v>
+        <v>0.2765654297435132</v>
       </c>
       <c r="H40">
-        <v>1.331526711752896</v>
+        <v>1.85430726180667</v>
       </c>
       <c r="I40">
-        <v>-0.01094474899441461</v>
+        <v>-0.001236948793878744</v>
       </c>
       <c r="J40">
-        <v>0.004343046334636123</v>
+        <v>0.004324202960002847</v>
       </c>
       <c r="K40">
-        <v>0.01206277783755429</v>
+        <v>0.05088090047104436</v>
       </c>
       <c r="L40">
-        <v>0.03519139422484635</v>
+        <v>0.06147841182155651</v>
       </c>
       <c r="M40">
-        <v>0.03519139422484635</v>
+        <v>0.06147841182155651</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>MWI</t>
         </is>
       </c>
     </row>
@@ -2394,38 +2394,38 @@
         <v>1</v>
       </c>
       <c r="D41">
-        <v>-0.01183799772050552</v>
+        <v>-0.003300851329889245</v>
       </c>
       <c r="E41">
-        <v>0.006427219330508153</v>
+        <v>0.003900019451795778</v>
       </c>
       <c r="F41">
-        <v>-1.841853702473473</v>
+        <v>-0.8463679144906203</v>
       </c>
       <c r="G41">
-        <v>0.06549655229069187</v>
+        <v>0.3973475318697988</v>
       </c>
       <c r="H41">
-        <v>3.932437223949573</v>
+        <v>1.331526711752896</v>
       </c>
       <c r="I41">
-        <v>-0.02443511612904113</v>
+        <v>-0.01094474899441461</v>
       </c>
       <c r="J41">
-        <v>0.0007591206880300985</v>
+        <v>0.004343046334636123</v>
       </c>
       <c r="K41">
-        <v>0.05089313123974336</v>
+        <v>0.01206277783755429</v>
       </c>
       <c r="L41">
-        <v>0.06039928765636846</v>
+        <v>0.03519139422484635</v>
       </c>
       <c r="M41">
-        <v>0.06039928765636846</v>
+        <v>0.03519139422484635</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>NAM</t>
         </is>
       </c>
     </row>
@@ -2444,38 +2444,38 @@
         <v>1</v>
       </c>
       <c r="D42">
-        <v>-0.01288132774721653</v>
+        <v>-0.01183799772050552</v>
       </c>
       <c r="E42">
-        <v>0.007393891850515368</v>
+        <v>0.006427219330508153</v>
       </c>
       <c r="F42">
-        <v>-1.742157987652833</v>
+        <v>-1.841853702473473</v>
       </c>
       <c r="G42">
-        <v>0.08148080310232965</v>
+        <v>0.06549655229069187</v>
       </c>
       <c r="H42">
-        <v>3.617395989711003</v>
+        <v>3.932437223949573</v>
       </c>
       <c r="I42">
-        <v>-0.02737308947981087</v>
+        <v>-0.02443511612904113</v>
       </c>
       <c r="J42">
-        <v>0.001610433985377796</v>
+        <v>0.0007591206880300985</v>
       </c>
       <c r="K42">
-        <v>0.1942405782500173</v>
+        <v>0.05089313123974336</v>
       </c>
       <c r="L42">
-        <v>0.1632562254216997</v>
+        <v>0.06039928765636846</v>
       </c>
       <c r="M42">
-        <v>0.1632562254216997</v>
+        <v>0.06039928765636846</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>NIC</t>
+          <t>NER</t>
         </is>
       </c>
     </row>
@@ -2494,38 +2494,38 @@
         <v>1</v>
       </c>
       <c r="D43">
-        <v>-0.002527608200555117</v>
+        <v>-0.01288132774721653</v>
       </c>
       <c r="E43">
-        <v>0.001841253090360185</v>
+        <v>0.007393891850515368</v>
       </c>
       <c r="F43">
-        <v>-1.372765218311551</v>
+        <v>-1.742157987652833</v>
       </c>
       <c r="G43">
-        <v>0.169825346844053</v>
+        <v>0.08148080310232965</v>
       </c>
       <c r="H43">
-        <v>2.557876294199191</v>
+        <v>3.617395989711003</v>
       </c>
       <c r="I43">
-        <v>-0.006136397944084153</v>
+        <v>-0.02737308947981087</v>
       </c>
       <c r="J43">
-        <v>0.001081181542973919</v>
+        <v>0.001610433985377796</v>
       </c>
       <c r="K43">
-        <v>0.07765082612219799</v>
+        <v>0.1942405782500173</v>
       </c>
       <c r="L43">
-        <v>0.07202275454208315</v>
+        <v>0.1632562254216997</v>
       </c>
       <c r="M43">
-        <v>0.07202275454208315</v>
+        <v>0.1632562254216997</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>NPL</t>
+          <t>NIC</t>
         </is>
       </c>
     </row>
@@ -2544,38 +2544,38 @@
         <v>1</v>
       </c>
       <c r="D44">
-        <v>0.001249076298788953</v>
+        <v>-0.002527608200555117</v>
       </c>
       <c r="E44">
-        <v>0.001755000023756112</v>
+        <v>0.001841253090360185</v>
       </c>
       <c r="F44">
-        <v>0.7117243771402556</v>
+        <v>-1.372765218311551</v>
       </c>
       <c r="G44">
-        <v>0.4766354692972809</v>
+        <v>0.169825346844053</v>
       </c>
       <c r="H44">
-        <v>1.0690417797938</v>
+        <v>2.557876294199191</v>
       </c>
       <c r="I44">
-        <v>-0.002190660540639966</v>
+        <v>-0.006136397944084153</v>
       </c>
       <c r="J44">
-        <v>0.004688813138217871</v>
+        <v>0.001081181542973919</v>
       </c>
       <c r="K44">
-        <v>0.03114370570862111</v>
+        <v>0.07765082612219799</v>
       </c>
       <c r="L44">
-        <v>0.03176454572017803</v>
+        <v>0.07202275454208315</v>
       </c>
       <c r="M44">
-        <v>0.03176454572017803</v>
+        <v>0.07202275454208315</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>PAK</t>
+          <t>NPL</t>
         </is>
       </c>
     </row>
@@ -2594,38 +2594,38 @@
         <v>1</v>
       </c>
       <c r="D45">
-        <v>0.001105176451084577</v>
+        <v>0.001249076298788953</v>
       </c>
       <c r="E45">
-        <v>10.74556374881067</v>
+        <v>0.001755000023756112</v>
       </c>
       <c r="F45">
-        <v>0.0001028495551205397</v>
+        <v>0.7117243771402556</v>
       </c>
       <c r="G45">
-        <v>0.9999179379280285</v>
+        <v>0.4766354692972809</v>
       </c>
       <c r="H45">
-        <v>0.0001183954022307784</v>
+        <v>1.0690417797938</v>
       </c>
       <c r="I45">
-        <v>-21.05981276479703</v>
+        <v>-0.002190660540639966</v>
       </c>
       <c r="J45">
-        <v>21.0620231176992</v>
+        <v>0.004688813138217871</v>
       </c>
       <c r="K45">
-        <v>0.06049479867346266</v>
+        <v>0.03114370570862111</v>
       </c>
       <c r="L45">
-        <v>0.04957439304260673</v>
+        <v>0.03176454572017803</v>
       </c>
       <c r="M45">
-        <v>0.04957439304260673</v>
+        <v>0.03176454572017803</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>PER</t>
+          <t>PAK</t>
         </is>
       </c>
     </row>
@@ -3253,7 +3253,7 @@
         <v>10.41348741113456</v>
       </c>
       <c r="G58">
-        <v>2.15191037442091e-25</v>
+        <v>2.15191037442091E-25</v>
       </c>
       <c r="H58">
         <v>81.94258438028912</v>
@@ -3368,10 +3368,10 @@
         <v>0.01058574794062437</v>
       </c>
       <c r="L60">
-        <v>-4.315658594378213e-11</v>
+        <v>-4.315658594378213E-11</v>
       </c>
       <c r="M60">
-        <v>-4.315658594378213e-11</v>
+        <v>-4.315658594378213E-11</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>

--- a/results/all_tes.xlsx
+++ b/results/all_tes.xlsx
@@ -406,22 +406,22 @@
         </is>
       </c>
       <c r="B2">
-        <v>-0.007293567380502949</v>
+        <v>-0.007293567380507147</v>
       </c>
       <c r="C2">
-        <v>0.002454100773757636</v>
+        <v>0.002454100773758116</v>
       </c>
       <c r="D2">
-        <v>-2.971991801842467</v>
+        <v>-2.971991801843596</v>
       </c>
       <c r="E2">
-        <v>0.005487531230739729</v>
+        <v>0.005487531230723876</v>
       </c>
       <c r="F2">
-        <v>-0.01228647294619512</v>
+        <v>-0.01228647294620029</v>
       </c>
       <c r="G2">
-        <v>-0.00230066181481078</v>
+        <v>-0.002300661814814001</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -436,22 +436,22 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.000568325706275694</v>
+        <v>0.0005683257062776691</v>
       </c>
       <c r="C3">
-        <v>0.004568033203943579</v>
+        <v>0.004568033203943421</v>
       </c>
       <c r="D3">
-        <v>0.124413654827434</v>
+        <v>0.1244136548278707</v>
       </c>
       <c r="E3">
-        <v>0.9024470476257749</v>
+        <v>0.9024470476254343</v>
       </c>
       <c r="F3">
-        <v>-0.009069381907464305</v>
+        <v>-0.009069381907461996</v>
       </c>
       <c r="G3">
-        <v>0.01020603332001569</v>
+        <v>0.01020603332001734</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -466,22 +466,22 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.001213215923258407</v>
+        <v>0.001213215923258773</v>
       </c>
       <c r="C4">
-        <v>0.003890933276051829</v>
+        <v>0.003890933276051854</v>
       </c>
       <c r="D4">
-        <v>0.3118058926185108</v>
+        <v>0.3118058926186029</v>
       </c>
       <c r="E4">
-        <v>0.7615919182684801</v>
+        <v>0.7615919182684122</v>
       </c>
       <c r="F4">
-        <v>-0.007456323679598907</v>
+        <v>-0.007456323679598595</v>
       </c>
       <c r="G4">
-        <v>0.009882755526115722</v>
+        <v>0.009882755526116142</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -496,22 +496,22 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.003138518712511269</v>
+        <v>0.003138518712512537</v>
       </c>
       <c r="C5">
-        <v>0.002939435758693685</v>
+        <v>0.002939435758693414</v>
       </c>
       <c r="D5">
-        <v>1.067728288746837</v>
+        <v>1.067728288747367</v>
       </c>
       <c r="E5">
-        <v>0.3014890309532079</v>
+        <v>0.3014890309529761</v>
       </c>
       <c r="F5">
-        <v>-0.003092806729063922</v>
+        <v>-0.003092806729062079</v>
       </c>
       <c r="G5">
-        <v>0.009369844154086459</v>
+        <v>0.009369844154087153</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -526,22 +526,22 @@
         </is>
       </c>
       <c r="B6">
-        <v>-0.005878747871857055</v>
+        <v>-0.005878747871900878</v>
       </c>
       <c r="C6">
-        <v>0.006661030111992267</v>
+        <v>0.006661030111989159</v>
       </c>
       <c r="D6">
-        <v>-0.8825583690536362</v>
+        <v>-0.882558369060627</v>
       </c>
       <c r="E6">
-        <v>0.3948109405504425</v>
+        <v>0.3948109405468124</v>
       </c>
       <c r="F6">
-        <v>-0.02039188573866554</v>
+        <v>-0.02039188573870259</v>
       </c>
       <c r="G6">
-        <v>0.008634389994951433</v>
+        <v>0.008634389994900838</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -556,22 +556,22 @@
         </is>
       </c>
       <c r="B7">
-        <v>-0.002142450939171856</v>
+        <v>-0.002142450939170469</v>
       </c>
       <c r="C7">
-        <v>0.006472308608898783</v>
+        <v>0.006472308608897436</v>
       </c>
       <c r="D7">
-        <v>-0.3310180445082916</v>
+        <v>-0.3310180445081462</v>
       </c>
       <c r="E7">
-        <v>0.7463394800463001</v>
+        <v>0.7463394800464073</v>
       </c>
       <c r="F7">
-        <v>-0.01624439997380618</v>
+        <v>-0.01624439997380186</v>
       </c>
       <c r="G7">
-        <v>0.01195949809546246</v>
+        <v>0.01195949809546092</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -616,22 +616,22 @@
         </is>
       </c>
       <c r="B9">
-        <v>-0.001196635411223126</v>
+        <v>-0.001196635411228065</v>
       </c>
       <c r="C9">
-        <v>0.002470503472306543</v>
+        <v>0.002470503472306689</v>
       </c>
       <c r="D9">
-        <v>-0.4843690464866695</v>
+        <v>-0.48436904648864</v>
       </c>
       <c r="E9">
-        <v>0.639693341632493</v>
+        <v>0.6396933416311484</v>
       </c>
       <c r="F9">
-        <v>-0.00678530253681921</v>
+        <v>-0.006785302536824479</v>
       </c>
       <c r="G9">
-        <v>0.004392031714372957</v>
+        <v>0.004392031714368349</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -646,22 +646,22 @@
         </is>
       </c>
       <c r="B10">
-        <v>0.01661153624793225</v>
+        <v>0.01661153624793778</v>
       </c>
       <c r="C10">
-        <v>0.008415340757501345</v>
+        <v>0.008415340757507144</v>
       </c>
       <c r="D10">
-        <v>1.973958836203383</v>
+        <v>1.973958836202679</v>
       </c>
       <c r="E10">
-        <v>0.07002487113848108</v>
+        <v>0.07002487113856892</v>
       </c>
       <c r="F10">
-        <v>-0.001568702158027506</v>
+        <v>-0.001568702158034504</v>
       </c>
       <c r="G10">
-        <v>0.034791774653892</v>
+        <v>0.03479177465391006</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="B11">
-        <v>-0.00502673371759959</v>
+        <v>-0.005026733717610445</v>
       </c>
       <c r="C11">
-        <v>0.01423057215758343</v>
+        <v>0.0142305721575699</v>
       </c>
       <c r="D11">
-        <v>-0.3532348286446698</v>
+        <v>-0.3532348286457683</v>
       </c>
       <c r="E11">
-        <v>0.7312453625933288</v>
+        <v>0.7312453625925304</v>
       </c>
       <c r="F11">
-        <v>-0.03673442442790536</v>
+        <v>-0.03673442442788608</v>
       </c>
       <c r="G11">
-        <v>0.02668095699270618</v>
+        <v>0.02668095699266519</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="B13">
-        <v>-0.01181376286472626</v>
+        <v>-0.01181376286471267</v>
       </c>
       <c r="C13">
-        <v>0.009555848769325343</v>
+        <v>0.009555848769330312</v>
       </c>
       <c r="D13">
-        <v>-1.236286085088423</v>
+        <v>-1.236286085086358</v>
       </c>
       <c r="E13">
-        <v>0.2420998574653929</v>
+        <v>0.2420998574661306</v>
       </c>
       <c r="F13">
-        <v>-0.03284604419809128</v>
+        <v>-0.03284604419808863</v>
       </c>
       <c r="G13">
-        <v>0.009218518468638774</v>
+        <v>0.009218518468663298</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -766,22 +766,22 @@
         </is>
       </c>
       <c r="B14">
-        <v>0.01360807867378814</v>
+        <v>0.01360807867379334</v>
       </c>
       <c r="C14">
-        <v>0.01220192570160883</v>
+        <v>0.01220192570161008</v>
       </c>
       <c r="D14">
-        <v>1.115240250315072</v>
+        <v>1.115240250315384</v>
       </c>
       <c r="E14">
-        <v>0.3074129304792854</v>
+        <v>0.3074129304791617</v>
       </c>
       <c r="F14">
-        <v>-0.0162489579322689</v>
+        <v>-0.01624895793226676</v>
       </c>
       <c r="G14">
-        <v>0.04346511527984519</v>
+        <v>0.04346511527985344</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -796,22 +796,22 @@
         </is>
       </c>
       <c r="B15">
-        <v>-0.003391824666596794</v>
+        <v>-0.003391824666596525</v>
       </c>
       <c r="C15">
-        <v>0.007195042326631553</v>
+        <v>0.007195042326631024</v>
       </c>
       <c r="D15">
-        <v>-0.4714113569620539</v>
+        <v>-0.4714113569620512</v>
       </c>
       <c r="E15">
-        <v>0.6441304411027857</v>
+        <v>0.6441304411027877</v>
       </c>
       <c r="F15">
-        <v>-0.01872769436397896</v>
+        <v>-0.01872769436397757</v>
       </c>
       <c r="G15">
-        <v>0.01194404503078537</v>
+        <v>0.01194404503078452</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -826,22 +826,22 @@
         </is>
       </c>
       <c r="B16">
-        <v>0.003822955285445211</v>
+        <v>0.003822955285443595</v>
       </c>
       <c r="C16">
-        <v>0.005495340325682149</v>
+        <v>0.005495340325687851</v>
       </c>
       <c r="D16">
-        <v>0.6956721620276828</v>
+        <v>0.6956721620266669</v>
       </c>
       <c r="E16">
-        <v>0.5024805259617562</v>
+        <v>0.5024805259623657</v>
       </c>
       <c r="F16">
-        <v>-0.008421425999094088</v>
+        <v>-0.00842142599910841</v>
       </c>
       <c r="G16">
-        <v>0.01606733656998451</v>
+        <v>0.0160673365699956</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -856,22 +856,22 @@
         </is>
       </c>
       <c r="B17">
-        <v>-0.005020572860740122</v>
+        <v>-0.005020572860739128</v>
       </c>
       <c r="C17">
-        <v>0.005129993470814946</v>
+        <v>0.005129993470815008</v>
       </c>
       <c r="D17">
-        <v>-0.978670419232046</v>
+        <v>-0.9786704192318404</v>
       </c>
       <c r="E17">
-        <v>0.3508251127674838</v>
+        <v>0.3508251127675807</v>
       </c>
       <c r="F17">
-        <v>-0.01645091062349882</v>
+        <v>-0.01645091062349796</v>
       </c>
       <c r="G17">
-        <v>0.006409764902018573</v>
+        <v>0.006409764902019705</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -886,22 +886,22 @@
         </is>
       </c>
       <c r="B18">
-        <v>0.01103149172507773</v>
+        <v>0.01103149172506242</v>
       </c>
       <c r="C18">
-        <v>0.01087545702077275</v>
+        <v>0.01087545702076913</v>
       </c>
       <c r="D18">
-        <v>1.014347415837969</v>
+        <v>1.014347415836898</v>
       </c>
       <c r="E18">
-        <v>0.3343303106320812</v>
+        <v>0.3343303106325679</v>
       </c>
       <c r="F18">
-        <v>-0.01320053659601291</v>
+        <v>-0.01320053659602018</v>
       </c>
       <c r="G18">
-        <v>0.03526352004616838</v>
+        <v>0.03526352004614502</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -916,22 +916,22 @@
         </is>
       </c>
       <c r="B19">
-        <v>0.002585021580058465</v>
+        <v>0.00258502157999289</v>
       </c>
       <c r="C19">
-        <v>0.00510679541959028</v>
+        <v>0.005106795419581959</v>
       </c>
       <c r="D19">
-        <v>0.506192507759761</v>
+        <v>0.5061925077477452</v>
       </c>
       <c r="E19">
-        <v>0.6342447993835121</v>
+        <v>0.6342447993913645</v>
       </c>
       <c r="F19">
-        <v>-0.01054241396385104</v>
+        <v>-0.01054241396389522</v>
       </c>
       <c r="G19">
-        <v>0.01571245712396797</v>
+        <v>0.015712457123881</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -976,22 +976,22 @@
         </is>
       </c>
       <c r="B21">
-        <v>-0.001112575537473847</v>
+        <v>-0.001112575537461552</v>
       </c>
       <c r="C21">
-        <v>0.004876063733539081</v>
+        <v>0.004876063733538119</v>
       </c>
       <c r="D21">
-        <v>-0.2281708357955223</v>
+        <v>-0.2281708357930457</v>
       </c>
       <c r="E21">
-        <v>0.8217205076812435</v>
+        <v>0.8217205076831438</v>
       </c>
       <c r="F21">
-        <v>-0.01125290518551626</v>
+        <v>-0.01125290518550197</v>
       </c>
       <c r="G21">
-        <v>0.009027754110568565</v>
+        <v>0.009027754110578861</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1036,22 +1036,22 @@
         </is>
       </c>
       <c r="B23">
-        <v>0.005018549946046556</v>
+        <v>0.00501854994604463</v>
       </c>
       <c r="C23">
-        <v>0.004056401450142163</v>
+        <v>0.004056401450141256</v>
       </c>
       <c r="D23">
-        <v>1.237192622014932</v>
+        <v>1.237192622014734</v>
       </c>
       <c r="E23">
-        <v>0.227073567537888</v>
+        <v>0.2270735675379603</v>
       </c>
       <c r="F23">
-        <v>-0.003319502649674297</v>
+        <v>-0.00331950264967436</v>
       </c>
       <c r="G23">
-        <v>0.01335660254176741</v>
+        <v>0.01335660254176362</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1066,22 +1066,22 @@
         </is>
       </c>
       <c r="B24">
-        <v>-0.01232732293110011</v>
+        <v>-0.01232732293107862</v>
       </c>
       <c r="C24">
-        <v>0.002143483433752071</v>
+        <v>0.002143483433751792</v>
       </c>
       <c r="D24">
-        <v>-5.751069841263803</v>
+        <v>-5.751069841254521</v>
       </c>
       <c r="E24">
-        <v>0.0002759244214060322</v>
+        <v>0.0002759244214092577</v>
       </c>
       <c r="F24">
-        <v>-0.01717621933410165</v>
+        <v>-0.01717621933407952</v>
       </c>
       <c r="G24">
-        <v>-0.007478426528098574</v>
+        <v>-0.007478426528077707</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="B25">
-        <v>-0.003180151962466237</v>
+        <v>-0.003180151962445406</v>
       </c>
       <c r="C25">
-        <v>0.005510187078720872</v>
+        <v>0.005510187078716886</v>
       </c>
       <c r="D25">
-        <v>-0.5771404703748232</v>
+        <v>-0.5771404703714602</v>
       </c>
       <c r="E25">
-        <v>0.5678831132651472</v>
+        <v>0.5678831132673914</v>
       </c>
       <c r="F25">
-        <v>-0.01440403575181579</v>
+        <v>-0.01440403575178684</v>
       </c>
       <c r="G25">
-        <v>0.008043731826883319</v>
+        <v>0.008043731826896031</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1126,22 +1126,22 @@
         </is>
       </c>
       <c r="B26">
-        <v>-0.001804523039527017</v>
+        <v>-0.001804523039562769</v>
       </c>
       <c r="C26">
-        <v>0.002603633731756874</v>
+        <v>0.002603633731764171</v>
       </c>
       <c r="D26">
-        <v>-0.6930786836554638</v>
+        <v>-0.693078683667253</v>
       </c>
       <c r="E26">
-        <v>0.4928339740953206</v>
+        <v>0.4928339740880133</v>
       </c>
       <c r="F26">
-        <v>-0.007090180520626672</v>
+        <v>-0.007090180520677239</v>
       </c>
       <c r="G26">
-        <v>0.003481134441572638</v>
+        <v>0.0034811344415517</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1156,22 +1156,22 @@
         </is>
       </c>
       <c r="B27">
-        <v>-0.003073927963377013</v>
+        <v>-0.003073927963376515</v>
       </c>
       <c r="C27">
-        <v>0.004333147767754088</v>
+        <v>0.004333147767754061</v>
       </c>
       <c r="D27">
-        <v>-0.70939836999149</v>
+        <v>-0.7093983699913793</v>
       </c>
       <c r="E27">
-        <v>0.490605640151855</v>
+        <v>0.4906056401519215</v>
       </c>
       <c r="F27">
-        <v>-0.01243512458465466</v>
+        <v>-0.0124351245846541</v>
       </c>
       <c r="G27">
-        <v>0.006287268657900629</v>
+        <v>0.006287268657901071</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1186,22 +1186,22 @@
         </is>
       </c>
       <c r="B28">
-        <v>-0.001206258712016809</v>
+        <v>-0.001206258712007567</v>
       </c>
       <c r="C28">
-        <v>0.00316969693076476</v>
+        <v>0.00316969693076304</v>
       </c>
       <c r="D28">
-        <v>-0.380559636572501</v>
+        <v>-0.3805596365697919</v>
       </c>
       <c r="E28">
-        <v>0.7052818120186125</v>
+        <v>0.7052818120206092</v>
       </c>
       <c r="F28">
-        <v>-0.007586527713861615</v>
+        <v>-0.007586527713848911</v>
       </c>
       <c r="G28">
-        <v>0.005174010289827998</v>
+        <v>0.005174010289833776</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1216,22 +1216,22 @@
         </is>
       </c>
       <c r="B29">
-        <v>0.006030756549680532</v>
+        <v>0.006030756549681238</v>
       </c>
       <c r="C29">
-        <v>0.00366635291965977</v>
+        <v>0.003666352919659492</v>
       </c>
       <c r="D29">
-        <v>1.644892535397322</v>
+        <v>1.644892535397639</v>
       </c>
       <c r="E29">
-        <v>0.1282375897839342</v>
+        <v>0.1282375897838679</v>
       </c>
       <c r="F29">
-        <v>-0.002038831818149274</v>
+        <v>-0.002038831818147955</v>
       </c>
       <c r="G29">
-        <v>0.01410034491751034</v>
+        <v>0.01410034491751043</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1246,22 +1246,22 @@
         </is>
       </c>
       <c r="B30">
-        <v>0.0009597484094411398</v>
+        <v>0.0009597484094436224</v>
       </c>
       <c r="C30">
-        <v>0.001774148359218317</v>
+        <v>0.001774148359218568</v>
       </c>
       <c r="D30">
-        <v>0.5409628819677748</v>
+        <v>0.5409628819690977</v>
       </c>
       <c r="E30">
-        <v>0.5935192351093594</v>
+        <v>0.5935192351084615</v>
       </c>
       <c r="F30">
-        <v>-0.002701913837264267</v>
+        <v>-0.002701913837262301</v>
       </c>
       <c r="G30">
-        <v>0.004621410656146546</v>
+        <v>0.004621410656149546</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -1276,22 +1276,22 @@
         </is>
       </c>
       <c r="B31">
-        <v>-0.002473487492387769</v>
+        <v>-0.002473487492393074</v>
       </c>
       <c r="C31">
-        <v>0.004220363431546189</v>
+        <v>0.00422036343154496</v>
       </c>
       <c r="D31">
-        <v>-0.5860840026001203</v>
+        <v>-0.5860840026015479</v>
       </c>
       <c r="E31">
-        <v>0.5655201126207856</v>
+        <v>0.565520112619848</v>
       </c>
       <c r="F31">
-        <v>-0.01137767600438199</v>
+        <v>-0.0113776760043847</v>
       </c>
       <c r="G31">
-        <v>0.006430701019606452</v>
+        <v>0.006430701019598554</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1306,22 +1306,22 @@
         </is>
       </c>
       <c r="B32">
-        <v>0.003620004195429271</v>
+        <v>0.003620004195429914</v>
       </c>
       <c r="C32">
-        <v>0.001235479748415023</v>
+        <v>0.00123547974841565</v>
       </c>
       <c r="D32">
-        <v>2.930039282370525</v>
+        <v>2.930039282369558</v>
       </c>
       <c r="E32">
-        <v>0.01675593700438982</v>
+        <v>0.01675593700441618</v>
       </c>
       <c r="F32">
-        <v>0.0008251548330601029</v>
+        <v>0.0008251548330593271</v>
       </c>
       <c r="G32">
-        <v>0.006414853557798439</v>
+        <v>0.006414853557800502</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -1336,22 +1336,22 @@
         </is>
       </c>
       <c r="B33">
-        <v>-0.0115247144608995</v>
+        <v>-0.01152471446090871</v>
       </c>
       <c r="C33">
-        <v>0.002818820973957351</v>
+        <v>0.002818820973957333</v>
       </c>
       <c r="D33">
-        <v>-4.088487551133807</v>
+        <v>-4.0884875511371</v>
       </c>
       <c r="E33">
-        <v>0.00128047424594114</v>
+        <v>0.001280474245933235</v>
       </c>
       <c r="F33">
-        <v>-0.01761440694121688</v>
+        <v>-0.01761440694122605</v>
       </c>
       <c r="G33">
-        <v>-0.005435021980582122</v>
+        <v>-0.005435021980591372</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -1366,22 +1366,22 @@
         </is>
       </c>
       <c r="B34">
-        <v>-0.02403585081072873</v>
+        <v>-0.02403585081072919</v>
       </c>
       <c r="C34">
-        <v>0.005902213636971502</v>
+        <v>0.005902213636971414</v>
       </c>
       <c r="D34">
-        <v>-4.072345104583814</v>
+        <v>-4.072345104583953</v>
       </c>
       <c r="E34">
-        <v>0.0002531116722301593</v>
+        <v>0.0002531116722300562</v>
       </c>
       <c r="F34">
-        <v>-0.03601798150937186</v>
+        <v>-0.03601798150937215</v>
       </c>
       <c r="G34">
-        <v>-0.01205372011208559</v>
+        <v>-0.01205372011208623</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -1396,22 +1396,22 @@
         </is>
       </c>
       <c r="B35">
-        <v>0.004884348836429948</v>
+        <v>0.004884348836445038</v>
       </c>
       <c r="C35">
-        <v>0.004484336585834236</v>
+        <v>0.004484336585835762</v>
       </c>
       <c r="D35">
-        <v>1.089202102237224</v>
+        <v>1.089202102240219</v>
       </c>
       <c r="E35">
-        <v>0.325754378783301</v>
+        <v>0.3257543787821006</v>
       </c>
       <c r="F35">
-        <v>-0.006643005335994902</v>
+        <v>-0.006643005335983734</v>
       </c>
       <c r="G35">
-        <v>0.0164117030088548</v>
+        <v>0.01641170300887381</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -1426,22 +1426,22 @@
         </is>
       </c>
       <c r="B36">
-        <v>0.01326977982324343</v>
+        <v>0.01326977982323713</v>
       </c>
       <c r="C36">
-        <v>0.004063118419309674</v>
+        <v>0.004063118419314729</v>
       </c>
       <c r="D36">
-        <v>3.26591018371007</v>
+        <v>3.265910183704458</v>
       </c>
       <c r="E36">
-        <v>0.009746214872152619</v>
+        <v>0.009746214872240035</v>
       </c>
       <c r="F36">
-        <v>0.004078367387704729</v>
+        <v>0.004078367387687</v>
       </c>
       <c r="G36">
-        <v>0.02246119225878213</v>
+        <v>0.02246119225878727</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -1456,22 +1456,22 @@
         </is>
       </c>
       <c r="B37">
-        <v>0.006558185729300278</v>
+        <v>0.006558185729297977</v>
       </c>
       <c r="C37">
-        <v>0.002152909217553711</v>
+        <v>0.002152909217553681</v>
       </c>
       <c r="D37">
-        <v>3.046197060158513</v>
+        <v>3.046197060157487</v>
       </c>
       <c r="E37">
-        <v>0.006137065839050049</v>
+        <v>0.006137065839064496</v>
       </c>
       <c r="F37">
-        <v>0.002080965914033744</v>
+        <v>0.002080965914031506</v>
       </c>
       <c r="G37">
-        <v>0.01103540554456681</v>
+        <v>0.01103540554456445</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -1486,22 +1486,22 @@
         </is>
       </c>
       <c r="B38">
-        <v>-0.00315009545616326</v>
+        <v>-0.003150095456157266</v>
       </c>
       <c r="C38">
-        <v>0.00364621403778785</v>
+        <v>0.003646214037786901</v>
       </c>
       <c r="D38">
-        <v>-0.8639359685188465</v>
+        <v>-0.8639359685174276</v>
       </c>
       <c r="E38">
-        <v>0.4078676935546978</v>
+        <v>0.4078676935554409</v>
       </c>
       <c r="F38">
-        <v>-0.01127436661641612</v>
+        <v>-0.01127436661640801</v>
       </c>
       <c r="G38">
-        <v>0.004974175704089596</v>
+        <v>0.004974175704093475</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="B39">
-        <v>-0.001098643890598003</v>
+        <v>-0.001098643890591981</v>
       </c>
       <c r="C39">
-        <v>0.003484722711117215</v>
+        <v>0.003484722711119452</v>
       </c>
       <c r="D39">
-        <v>-0.3152744082314007</v>
+        <v>-0.3152744082294705</v>
       </c>
       <c r="E39">
-        <v>0.7579685474631215</v>
+        <v>0.7579685474645511</v>
       </c>
       <c r="F39">
-        <v>-0.008691202441412959</v>
+        <v>-0.008691202441411808</v>
       </c>
       <c r="G39">
-        <v>0.006493914660216954</v>
+        <v>0.006493914660227847</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -1546,22 +1546,22 @@
         </is>
       </c>
       <c r="B40">
-        <v>0.001543625317711348</v>
+        <v>0.001543625317710092</v>
       </c>
       <c r="C40">
-        <v>0.00145045887236208</v>
+        <v>0.001450458872365183</v>
       </c>
       <c r="D40">
-        <v>1.064232393709686</v>
+        <v>1.064232393706544</v>
       </c>
       <c r="E40">
-        <v>0.2966489988763819</v>
+        <v>0.2966489988777793</v>
       </c>
       <c r="F40">
-        <v>-0.001432470459500751</v>
+        <v>-0.001432470459508372</v>
       </c>
       <c r="G40">
-        <v>0.004519721094923446</v>
+        <v>0.004519721094928557</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -1576,22 +1576,22 @@
         </is>
       </c>
       <c r="B41">
-        <v>-0.003300850377904916</v>
+        <v>-0.003300850377905177</v>
       </c>
       <c r="C41">
-        <v>0.003921115758781878</v>
+        <v>0.003921115758781824</v>
       </c>
       <c r="D41">
-        <v>-0.841814060325102</v>
+        <v>-0.8418140603251802</v>
       </c>
       <c r="E41">
-        <v>0.4163534878909566</v>
+        <v>0.4163534878909145</v>
       </c>
       <c r="F41">
-        <v>-0.01184422769974922</v>
+        <v>-0.01184422769974936</v>
       </c>
       <c r="G41">
-        <v>0.005242526943939388</v>
+        <v>0.005242526943939011</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B42">
-        <v>-0.01183813161329963</v>
+        <v>-0.01183813161329247</v>
       </c>
       <c r="C42">
-        <v>0.007585669011404816</v>
+        <v>0.007585669011401661</v>
       </c>
       <c r="D42">
-        <v>-1.560591636083959</v>
+        <v>-1.560591636083665</v>
       </c>
       <c r="E42">
-        <v>0.1572420378758088</v>
+        <v>0.1572420378758776</v>
       </c>
       <c r="F42">
-        <v>-0.02933071572188923</v>
+        <v>-0.0293307157218748</v>
       </c>
       <c r="G42">
-        <v>0.00565445249528997</v>
+        <v>0.005654452495289852</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -1636,22 +1636,22 @@
         </is>
       </c>
       <c r="B43">
-        <v>-0.01288132842004853</v>
+        <v>-0.01288132842004252</v>
       </c>
       <c r="C43">
-        <v>0.00746302475331402</v>
+        <v>0.007463024753311976</v>
       </c>
       <c r="D43">
-        <v>-1.726019790344185</v>
+        <v>-1.726019790343852</v>
       </c>
       <c r="E43">
-        <v>0.1035993361503865</v>
+        <v>0.1035993361504478</v>
       </c>
       <c r="F43">
-        <v>-0.02870223414281831</v>
+        <v>-0.02870223414280797</v>
       </c>
       <c r="G43">
-        <v>0.002939577302721255</v>
+        <v>0.002939577302722936</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -1666,22 +1666,22 @@
         </is>
       </c>
       <c r="B44">
-        <v>-0.002527609699431582</v>
+        <v>-0.002527609699483819</v>
       </c>
       <c r="C44">
-        <v>0.007675566102457534</v>
+        <v>0.007675566102451019</v>
       </c>
       <c r="D44">
-        <v>-0.3293059646274561</v>
+        <v>-0.3293059646345413</v>
       </c>
       <c r="E44">
-        <v>0.7584459771818505</v>
+        <v>0.7584459771768803</v>
       </c>
       <c r="F44">
-        <v>-0.02383839763422191</v>
+        <v>-0.02383839763425605</v>
       </c>
       <c r="G44">
-        <v>0.01878317823535874</v>
+        <v>0.01878317823528842</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -1696,22 +1696,22 @@
         </is>
       </c>
       <c r="B45">
-        <v>0.001249078797148404</v>
+        <v>0.001249078797165937</v>
       </c>
       <c r="C45">
-        <v>0.003813326904750902</v>
+        <v>0.003813326904751663</v>
       </c>
       <c r="D45">
-        <v>0.3275561808226347</v>
+        <v>0.327556180827167</v>
       </c>
       <c r="E45">
-        <v>0.754374567977576</v>
+        <v>0.7543745679743153</v>
       </c>
       <c r="F45">
-        <v>-0.00808179599837654</v>
+        <v>-0.008081795998360871</v>
       </c>
       <c r="G45">
-        <v>0.01057995359267335</v>
+        <v>0.01057995359269274</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -1726,22 +1726,22 @@
         </is>
       </c>
       <c r="B46">
-        <v>0.0002189622515387815</v>
+        <v>0.0002189622515556041</v>
       </c>
       <c r="C46">
-        <v>0.005068793116689442</v>
+        <v>0.005068793116678111</v>
       </c>
       <c r="D46">
-        <v>0.04319810386772923</v>
+        <v>0.04319810387114465</v>
       </c>
       <c r="E46">
-        <v>0.9656512553356562</v>
+        <v>0.9656512553329422</v>
       </c>
       <c r="F46">
-        <v>-0.009868257519891196</v>
+        <v>-0.009868257519851823</v>
       </c>
       <c r="G46">
-        <v>0.01030618202296876</v>
+        <v>0.01030618202296303</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -1756,22 +1756,22 @@
         </is>
       </c>
       <c r="B47">
-        <v>0.0008800882020401342</v>
+        <v>0.0008800882020408797</v>
       </c>
       <c r="C47">
-        <v>0.003623418555615785</v>
+        <v>0.003623418555613552</v>
       </c>
       <c r="D47">
-        <v>0.2428889151312984</v>
+        <v>0.2428889151316538</v>
       </c>
       <c r="E47">
-        <v>0.8200381237193546</v>
+        <v>0.8200381237190976</v>
       </c>
       <c r="F47">
-        <v>-0.009180134510782171</v>
+        <v>-0.009180134510775225</v>
       </c>
       <c r="G47">
-        <v>0.01094031091486244</v>
+        <v>0.01094031091485699</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -1786,22 +1786,22 @@
         </is>
       </c>
       <c r="B48">
-        <v>0.0005718958797217287</v>
+        <v>0.0005718958797129685</v>
       </c>
       <c r="C48">
-        <v>0.009951238590239445</v>
+        <v>0.009951238590232492</v>
       </c>
       <c r="D48">
-        <v>0.05746981891105154</v>
+        <v>0.05746981891021138</v>
       </c>
       <c r="E48">
-        <v>0.9548410513335387</v>
+        <v>0.9548410513341981</v>
       </c>
       <c r="F48">
-        <v>-0.02042338231670151</v>
+        <v>-0.0204233823166956</v>
       </c>
       <c r="G48">
-        <v>0.02156717407614496</v>
+        <v>0.02156717407612153</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -1816,22 +1816,22 @@
         </is>
       </c>
       <c r="B49">
-        <v>-0.005514410636391075</v>
+        <v>-0.005514410636390455</v>
       </c>
       <c r="C49">
-        <v>0.004606897343485401</v>
+        <v>0.004606897343484209</v>
       </c>
       <c r="D49">
-        <v>-1.196990127029634</v>
+        <v>-1.196990127029809</v>
       </c>
       <c r="E49">
-        <v>0.2526829972005843</v>
+        <v>0.2526829972005183</v>
       </c>
       <c r="F49">
-        <v>-0.01546700726079863</v>
+        <v>-0.01546700726079544</v>
       </c>
       <c r="G49">
-        <v>0.004438185988016484</v>
+        <v>0.00443818598801453</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -1846,22 +1846,22 @@
         </is>
       </c>
       <c r="B50">
-        <v>0.008968869413030468</v>
+        <v>0.008968869413038321</v>
       </c>
       <c r="C50">
-        <v>0.01032037099234177</v>
+        <v>0.01032037099233654</v>
       </c>
       <c r="D50">
-        <v>0.8690452523156211</v>
+        <v>0.8690452523168224</v>
       </c>
       <c r="E50">
-        <v>0.4005828756671006</v>
+        <v>0.4005828756664676</v>
       </c>
       <c r="F50">
-        <v>-0.01332693660189248</v>
+        <v>-0.01332693660187334</v>
       </c>
       <c r="G50">
-        <v>0.03126467542795341</v>
+        <v>0.03126467542794998</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -1876,22 +1876,22 @@
         </is>
       </c>
       <c r="B51">
-        <v>0.00616113709699348</v>
+        <v>0.006161137096994436</v>
       </c>
       <c r="C51">
-        <v>0.0100532682833467</v>
+        <v>0.01005326828334648</v>
       </c>
       <c r="D51">
-        <v>0.612849167389618</v>
+        <v>0.6128491673897264</v>
       </c>
       <c r="E51">
-        <v>0.5485887905085218</v>
+        <v>0.5485887905084519</v>
       </c>
       <c r="F51">
-        <v>-0.01515083961136615</v>
+        <v>-0.01515083961136474</v>
       </c>
       <c r="G51">
-        <v>0.02747311380535311</v>
+        <v>0.02747311380535361</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -1906,22 +1906,22 @@
         </is>
       </c>
       <c r="B52">
-        <v>-0.004674924773164673</v>
+        <v>-0.004674924773194418</v>
       </c>
       <c r="C52">
-        <v>0.01206908080615576</v>
+        <v>0.01206908080614977</v>
       </c>
       <c r="D52">
-        <v>-0.3873472096383891</v>
+        <v>-0.3873472096410457</v>
       </c>
       <c r="E52">
-        <v>0.7022211255678501</v>
+        <v>0.7022211255659121</v>
       </c>
       <c r="F52">
-        <v>-0.02970466641140852</v>
+        <v>-0.02970466641142584</v>
       </c>
       <c r="G52">
-        <v>0.02035481686507917</v>
+        <v>0.02035481686503701</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -1966,22 +1966,22 @@
         </is>
       </c>
       <c r="B54">
-        <v>-0.002448567964966094</v>
+        <v>-0.00244856796496975</v>
       </c>
       <c r="C54">
-        <v>0.003042829875165307</v>
+        <v>0.003042829875165421</v>
       </c>
       <c r="D54">
-        <v>-0.804700908503165</v>
+        <v>-0.8047009085043362</v>
       </c>
       <c r="E54">
-        <v>0.4235025052173765</v>
+        <v>0.4235025052167046</v>
       </c>
       <c r="F54">
-        <v>-0.00850888888314133</v>
+        <v>-0.008508888883145212</v>
       </c>
       <c r="G54">
-        <v>0.00361175295320914</v>
+        <v>0.003611752953205712</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -1996,22 +1996,22 @@
         </is>
       </c>
       <c r="B55">
-        <v>0.0008557890271365272</v>
+        <v>0.0008557890271376324</v>
       </c>
       <c r="C55">
-        <v>0.001137627082774013</v>
+        <v>0.001137627082773608</v>
       </c>
       <c r="D55">
-        <v>0.7522579587765735</v>
+        <v>0.7522579587778128</v>
       </c>
       <c r="E55">
-        <v>0.4937417991796676</v>
+        <v>0.4937417991789998</v>
       </c>
       <c r="F55">
-        <v>-0.002302770118371826</v>
+        <v>-0.002302770118369597</v>
       </c>
       <c r="G55">
-        <v>0.004014348172644881</v>
+        <v>0.004014348172644862</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -2026,22 +2026,22 @@
         </is>
       </c>
       <c r="B56">
-        <v>-0.004508539662328985</v>
+        <v>-0.00450853966232425</v>
       </c>
       <c r="C56">
-        <v>0.002286486523957574</v>
+        <v>0.002286486523957437</v>
       </c>
       <c r="D56">
-        <v>-1.971819914567159</v>
+        <v>-1.971819914565206</v>
       </c>
       <c r="E56">
-        <v>0.07212798433109864</v>
+        <v>0.07212798433134485</v>
       </c>
       <c r="F56">
-        <v>-0.009490365835588974</v>
+        <v>-0.009490365835583939</v>
       </c>
       <c r="G56">
-        <v>0.0004732865109310031</v>
+        <v>0.0004732865109354388</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -2056,22 +2056,22 @@
         </is>
       </c>
       <c r="B57">
-        <v>0.005891058443700029</v>
+        <v>0.005891058443701575</v>
       </c>
       <c r="C57">
-        <v>0.00384874271380135</v>
+        <v>0.003848742713801437</v>
       </c>
       <c r="D57">
-        <v>1.530644909719495</v>
+        <v>1.530644909719862</v>
       </c>
       <c r="E57">
-        <v>0.1366938190927213</v>
+        <v>0.1366938190926309</v>
       </c>
       <c r="F57">
-        <v>-0.001980504239508754</v>
+        <v>-0.001980504239507387</v>
       </c>
       <c r="G57">
-        <v>0.01376262112690881</v>
+        <v>0.01376262112691054</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -2086,22 +2086,22 @@
         </is>
       </c>
       <c r="B58">
-        <v>0.02568475573116437</v>
+        <v>0.0256847557311662</v>
       </c>
       <c r="C58">
-        <v>0.01084880572150461</v>
+        <v>0.0108488057214991</v>
       </c>
       <c r="D58">
-        <v>2.367519189716136</v>
+        <v>2.367519189717506</v>
       </c>
       <c r="E58">
-        <v>0.02138739336023838</v>
+        <v>0.02138739336016656</v>
       </c>
       <c r="F58">
-        <v>0.003951986358976568</v>
+        <v>0.003951986358989433</v>
       </c>
       <c r="G58">
-        <v>0.04741752510335217</v>
+        <v>0.04741752510334298</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -2116,22 +2116,22 @@
         </is>
       </c>
       <c r="B59">
-        <v>-0.001978379793338148</v>
+        <v>-0.001978379793338056</v>
       </c>
       <c r="C59">
-        <v>0.0009708756868043922</v>
+        <v>0.0009708756868043888</v>
       </c>
       <c r="D59">
-        <v>-2.037727198473705</v>
+        <v>-2.037727198473617</v>
       </c>
       <c r="E59">
-        <v>0.06246267038986587</v>
+        <v>0.06246267038987574</v>
       </c>
       <c r="F59">
-        <v>-0.004075829196432143</v>
+        <v>-0.004075829196432044</v>
       </c>
       <c r="G59">
-        <v>0.0001190696097558464</v>
+        <v>0.0001190696097559314</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -2146,22 +2146,22 @@
         </is>
       </c>
       <c r="B60">
-        <v>0.001550028419858135</v>
+        <v>0.001550028419858558</v>
       </c>
       <c r="C60">
-        <v>0.001057000804154523</v>
+        <v>0.00105700080415434</v>
       </c>
       <c r="D60">
-        <v>1.466440151952369</v>
+        <v>1.466440151953023</v>
       </c>
       <c r="E60">
-        <v>0.1807021662322656</v>
+        <v>0.1807021662320922</v>
       </c>
       <c r="F60">
-        <v>-0.0008874198054363239</v>
+        <v>-0.0008874198054354791</v>
       </c>
       <c r="G60">
-        <v>0.003987476645152593</v>
+        <v>0.003987476645152595</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -2176,22 +2176,22 @@
         </is>
       </c>
       <c r="B61">
-        <v>-0.00801324979372809</v>
+        <v>-0.008013249793734935</v>
       </c>
       <c r="C61">
-        <v>0.003772852739754587</v>
+        <v>0.003772852739742843</v>
       </c>
       <c r="D61">
-        <v>-2.123923287355586</v>
+        <v>-2.123923287364011</v>
       </c>
       <c r="E61">
-        <v>0.06263703440773542</v>
+        <v>0.06263703440687787</v>
       </c>
       <c r="F61">
-        <v>-0.01654803564314676</v>
+        <v>-0.01654803564312704</v>
       </c>
       <c r="G61">
-        <v>0.0005215360556905801</v>
+        <v>0.0005215360556571676</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -2206,22 +2206,22 @@
         </is>
       </c>
       <c r="B62">
-        <v>0.001065260833923872</v>
+        <v>0.001065260833914439</v>
       </c>
       <c r="C62">
-        <v>0.002283999929942185</v>
+        <v>0.002283999929942548</v>
       </c>
       <c r="D62">
-        <v>0.4664014302096922</v>
+        <v>0.4664014302054882</v>
       </c>
       <c r="E62">
-        <v>0.652011170655372</v>
+        <v>0.6520111706582673</v>
       </c>
       <c r="F62">
-        <v>-0.00410150596742544</v>
+        <v>-0.004101505967435695</v>
       </c>
       <c r="G62">
-        <v>0.006232027635273184</v>
+        <v>0.006232027635264574</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>

--- a/results/all_tes.xlsx
+++ b/results/all_tes.xlsx
@@ -406,22 +406,22 @@
         </is>
       </c>
       <c r="B2">
-        <v>-0.007293567380507147</v>
+        <v>-0.00729356738051516</v>
       </c>
       <c r="C2">
-        <v>0.002454100773758116</v>
+        <v>0.002454100773757984</v>
       </c>
       <c r="D2">
-        <v>-2.971991801843596</v>
+        <v>-2.971991801847022</v>
       </c>
       <c r="E2">
-        <v>0.005487531230723876</v>
+        <v>0.005487531230675743</v>
       </c>
       <c r="F2">
-        <v>-0.01228647294620029</v>
+        <v>-0.01228647294620804</v>
       </c>
       <c r="G2">
-        <v>-0.002300661814814001</v>
+        <v>-0.002300661814822284</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -436,22 +436,22 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.0005683257062776691</v>
+        <v>0.0005683257062771125</v>
       </c>
       <c r="C3">
-        <v>0.004568033203943421</v>
+        <v>0.004568033203943539</v>
       </c>
       <c r="D3">
-        <v>0.1244136548278707</v>
+        <v>0.1244136548277456</v>
       </c>
       <c r="E3">
-        <v>0.9024470476254343</v>
+        <v>0.9024470476255319</v>
       </c>
       <c r="F3">
-        <v>-0.009069381907461996</v>
+        <v>-0.009069381907462801</v>
       </c>
       <c r="G3">
-        <v>0.01020603332001734</v>
+        <v>0.01020603332001703</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -466,22 +466,22 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.001213215923258773</v>
+        <v>0.001213215923259447</v>
       </c>
       <c r="C4">
-        <v>0.003890933276051854</v>
+        <v>0.003890933276051978</v>
       </c>
       <c r="D4">
-        <v>0.3118058926186029</v>
+        <v>0.3118058926187662</v>
       </c>
       <c r="E4">
-        <v>0.7615919182684122</v>
+        <v>0.7615919182682918</v>
       </c>
       <c r="F4">
-        <v>-0.007456323679598595</v>
+        <v>-0.007456323679598199</v>
       </c>
       <c r="G4">
-        <v>0.009882755526116142</v>
+        <v>0.009882755526117094</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -496,22 +496,22 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.003138518712512537</v>
+        <v>0.003138518712511355</v>
       </c>
       <c r="C5">
-        <v>0.002939435758693414</v>
+        <v>0.002939435758693633</v>
       </c>
       <c r="D5">
-        <v>1.067728288747367</v>
+        <v>1.067728288746885</v>
       </c>
       <c r="E5">
-        <v>0.3014890309529761</v>
+        <v>0.3014890309531868</v>
       </c>
       <c r="F5">
-        <v>-0.003092806729062079</v>
+        <v>-0.003092806729063725</v>
       </c>
       <c r="G5">
-        <v>0.009369844154087153</v>
+        <v>0.009369844154086437</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -526,22 +526,22 @@
         </is>
       </c>
       <c r="B6">
-        <v>-0.005878747871900878</v>
+        <v>-0.005878747871894292</v>
       </c>
       <c r="C6">
-        <v>0.006661030111989159</v>
+        <v>0.006661030111987211</v>
       </c>
       <c r="D6">
-        <v>-0.882558369060627</v>
+        <v>-0.8825583690598964</v>
       </c>
       <c r="E6">
-        <v>0.3948109405468124</v>
+        <v>0.3948109405471919</v>
       </c>
       <c r="F6">
-        <v>-0.02039188573870259</v>
+        <v>-0.02039188573869176</v>
       </c>
       <c r="G6">
-        <v>0.008634389994900838</v>
+        <v>0.00863438999490318</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -556,22 +556,22 @@
         </is>
       </c>
       <c r="B7">
-        <v>-0.002142450939170469</v>
+        <v>-0.002142450939168008</v>
       </c>
       <c r="C7">
-        <v>0.006472308608897436</v>
+        <v>0.006472308608898863</v>
       </c>
       <c r="D7">
-        <v>-0.3310180445081462</v>
+        <v>-0.3310180445076929</v>
       </c>
       <c r="E7">
-        <v>0.7463394800464073</v>
+        <v>0.7463394800467411</v>
       </c>
       <c r="F7">
-        <v>-0.01624439997380186</v>
+        <v>-0.0162443999738025</v>
       </c>
       <c r="G7">
-        <v>0.01195949809546092</v>
+        <v>0.01195949809546649</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -616,22 +616,22 @@
         </is>
       </c>
       <c r="B9">
-        <v>-0.001196635411228065</v>
+        <v>-0.001196635411224818</v>
       </c>
       <c r="C9">
-        <v>0.002470503472306689</v>
+        <v>0.002470503472306692</v>
       </c>
       <c r="D9">
-        <v>-0.48436904648864</v>
+        <v>-0.484369046487325</v>
       </c>
       <c r="E9">
-        <v>0.6396933416311484</v>
+        <v>0.6396933416320457</v>
       </c>
       <c r="F9">
-        <v>-0.006785302536824479</v>
+        <v>-0.006785302536821238</v>
       </c>
       <c r="G9">
-        <v>0.004392031714368349</v>
+        <v>0.004392031714371602</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -646,22 +646,22 @@
         </is>
       </c>
       <c r="B10">
-        <v>0.01661153624793778</v>
+        <v>0.01661153624792903</v>
       </c>
       <c r="C10">
-        <v>0.008415340757507144</v>
+        <v>0.008415340757506386</v>
       </c>
       <c r="D10">
-        <v>1.973958836202679</v>
+        <v>1.973958836201818</v>
       </c>
       <c r="E10">
-        <v>0.07002487113856892</v>
+        <v>0.07002487113867649</v>
       </c>
       <c r="F10">
-        <v>-0.001568702158034504</v>
+        <v>-0.001568702158041609</v>
       </c>
       <c r="G10">
-        <v>0.03479177465391006</v>
+        <v>0.03479177465389968</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="B13">
-        <v>-0.01181376286471267</v>
+        <v>-0.01181376286471418</v>
       </c>
       <c r="C13">
-        <v>0.009555848769330312</v>
+        <v>0.009555848769330277</v>
       </c>
       <c r="D13">
-        <v>-1.236286085086358</v>
+        <v>-1.236286085086521</v>
       </c>
       <c r="E13">
-        <v>0.2420998574661306</v>
+        <v>0.2420998574660728</v>
       </c>
       <c r="F13">
-        <v>-0.03284604419808863</v>
+        <v>-0.03284604419809006</v>
       </c>
       <c r="G13">
-        <v>0.009218518468663298</v>
+        <v>0.009218518468661714</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -766,22 +766,22 @@
         </is>
       </c>
       <c r="B14">
-        <v>0.01360807867379334</v>
+        <v>0.01360807867378952</v>
       </c>
       <c r="C14">
-        <v>0.01220192570161008</v>
+        <v>0.01220192570160644</v>
       </c>
       <c r="D14">
-        <v>1.115240250315384</v>
+        <v>1.115240250315403</v>
       </c>
       <c r="E14">
-        <v>0.3074129304791617</v>
+        <v>0.3074129304791542</v>
       </c>
       <c r="F14">
-        <v>-0.01624895793226676</v>
+        <v>-0.01624895793226167</v>
       </c>
       <c r="G14">
-        <v>0.04346511527985344</v>
+        <v>0.04346511527984071</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -796,22 +796,22 @@
         </is>
       </c>
       <c r="B15">
-        <v>-0.003391824666596525</v>
+        <v>-0.003391824666592616</v>
       </c>
       <c r="C15">
-        <v>0.007195042326631024</v>
+        <v>0.007195042326630838</v>
       </c>
       <c r="D15">
-        <v>-0.4714113569620512</v>
+        <v>-0.4714113569615201</v>
       </c>
       <c r="E15">
-        <v>0.6441304411027877</v>
+        <v>0.6441304411031583</v>
       </c>
       <c r="F15">
-        <v>-0.01872769436397757</v>
+        <v>-0.01872769436397326</v>
       </c>
       <c r="G15">
-        <v>0.01194404503078452</v>
+        <v>0.01194404503078803</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -826,22 +826,22 @@
         </is>
       </c>
       <c r="B16">
-        <v>0.003822955285443595</v>
+        <v>0.003822955285429089</v>
       </c>
       <c r="C16">
-        <v>0.005495340325687851</v>
+        <v>0.005495340325683597</v>
       </c>
       <c r="D16">
-        <v>0.6956721620266669</v>
+        <v>0.6956721620245658</v>
       </c>
       <c r="E16">
-        <v>0.5024805259623657</v>
+        <v>0.5024805259636265</v>
       </c>
       <c r="F16">
-        <v>-0.00842142599910841</v>
+        <v>-0.008421425999113438</v>
       </c>
       <c r="G16">
-        <v>0.0160673365699956</v>
+        <v>0.01606733656997162</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -856,22 +856,22 @@
         </is>
       </c>
       <c r="B17">
-        <v>-0.005020572860739128</v>
+        <v>-0.005020572860741777</v>
       </c>
       <c r="C17">
-        <v>0.005129993470815008</v>
+        <v>0.005129993470815072</v>
       </c>
       <c r="D17">
-        <v>-0.9786704192318404</v>
+        <v>-0.9786704192323447</v>
       </c>
       <c r="E17">
-        <v>0.3508251127675807</v>
+        <v>0.3508251127673432</v>
       </c>
       <c r="F17">
-        <v>-0.01645091062349796</v>
+        <v>-0.01645091062350075</v>
       </c>
       <c r="G17">
-        <v>0.006409764902019705</v>
+        <v>0.006409764902017199</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -886,22 +886,22 @@
         </is>
       </c>
       <c r="B18">
-        <v>0.01103149172506242</v>
+        <v>0.01103149172502244</v>
       </c>
       <c r="C18">
-        <v>0.01087545702076913</v>
+        <v>0.01087545702076173</v>
       </c>
       <c r="D18">
-        <v>1.014347415836898</v>
+        <v>1.014347415833913</v>
       </c>
       <c r="E18">
-        <v>0.3343303106325679</v>
+        <v>0.3343303106339235</v>
       </c>
       <c r="F18">
-        <v>-0.01320053659602018</v>
+        <v>-0.01320053659604366</v>
       </c>
       <c r="G18">
-        <v>0.03526352004614502</v>
+        <v>0.03526352004608855</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -916,22 +916,22 @@
         </is>
       </c>
       <c r="B19">
-        <v>0.00258502157999289</v>
+        <v>0.002585021580033122</v>
       </c>
       <c r="C19">
-        <v>0.005106795419581959</v>
+        <v>0.005106795419591495</v>
       </c>
       <c r="D19">
-        <v>0.5061925077477452</v>
+        <v>0.5061925077546779</v>
       </c>
       <c r="E19">
-        <v>0.6342447993913645</v>
+        <v>0.6342447993868341</v>
       </c>
       <c r="F19">
-        <v>-0.01054241396389522</v>
+        <v>-0.0105424139638795</v>
       </c>
       <c r="G19">
-        <v>0.015712457123881</v>
+        <v>0.01571245712394575</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -976,22 +976,22 @@
         </is>
       </c>
       <c r="B21">
-        <v>-0.001112575537461552</v>
+        <v>-0.001112575537462836</v>
       </c>
       <c r="C21">
-        <v>0.004876063733538119</v>
+        <v>0.004876063733537996</v>
       </c>
       <c r="D21">
-        <v>-0.2281708357930457</v>
+        <v>-0.2281708357933149</v>
       </c>
       <c r="E21">
-        <v>0.8217205076831438</v>
+        <v>0.8217205076829373</v>
       </c>
       <c r="F21">
-        <v>-0.01125290518550197</v>
+        <v>-0.01125290518550299</v>
       </c>
       <c r="G21">
-        <v>0.009027754110578861</v>
+        <v>0.009027754110577322</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1006,22 +1006,22 @@
         </is>
       </c>
       <c r="B22">
-        <v>0.006090621964930851</v>
+        <v>0.0060906219649375</v>
       </c>
       <c r="C22">
-        <v>0.01083373482411653</v>
+        <v>0.01083373482411645</v>
       </c>
       <c r="D22">
-        <v>0.5621904231376207</v>
+        <v>0.5621904231382389</v>
       </c>
       <c r="E22">
-        <v>0.5877126270534416</v>
+        <v>0.587712627053038</v>
       </c>
       <c r="F22">
-        <v>-0.01841698886730071</v>
+        <v>-0.01841698886729387</v>
       </c>
       <c r="G22">
-        <v>0.03059823279716242</v>
+        <v>0.03059823279716887</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1036,22 +1036,22 @@
         </is>
       </c>
       <c r="B23">
-        <v>0.00501854994604463</v>
+        <v>0.005018549946045139</v>
       </c>
       <c r="C23">
-        <v>0.004056401450141256</v>
+        <v>0.004056401450141312</v>
       </c>
       <c r="D23">
-        <v>1.237192622014734</v>
+        <v>1.237192622014842</v>
       </c>
       <c r="E23">
-        <v>0.2270735675379603</v>
+        <v>0.2270735675379208</v>
       </c>
       <c r="F23">
-        <v>-0.00331950264967436</v>
+        <v>-0.003319502649673966</v>
       </c>
       <c r="G23">
-        <v>0.01335660254176362</v>
+        <v>0.01335660254176424</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1066,22 +1066,22 @@
         </is>
       </c>
       <c r="B24">
-        <v>-0.01232732293107862</v>
+        <v>-0.01232732293113159</v>
       </c>
       <c r="C24">
-        <v>0.002143483433751792</v>
+        <v>0.002143483433751695</v>
       </c>
       <c r="D24">
-        <v>-5.751069841254521</v>
+        <v>-5.751069841279497</v>
       </c>
       <c r="E24">
-        <v>0.0002759244214092577</v>
+        <v>0.0002759244214005777</v>
       </c>
       <c r="F24">
-        <v>-0.01717621933407952</v>
+        <v>-0.01717621933413228</v>
       </c>
       <c r="G24">
-        <v>-0.007478426528077707</v>
+        <v>-0.007478426528130901</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="B25">
-        <v>-0.003180151962445406</v>
+        <v>-0.003180151962445418</v>
       </c>
       <c r="C25">
         <v>0.005510187078716886</v>
       </c>
       <c r="D25">
-        <v>-0.5771404703714602</v>
+        <v>-0.5771404703714625</v>
       </c>
       <c r="E25">
-        <v>0.5678831132673914</v>
+        <v>0.5678831132673898</v>
       </c>
       <c r="F25">
-        <v>-0.01440403575178684</v>
+        <v>-0.01440403575178685</v>
       </c>
       <c r="G25">
-        <v>0.008043731826896031</v>
+        <v>0.008043731826896019</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1126,22 +1126,22 @@
         </is>
       </c>
       <c r="B26">
-        <v>-0.001804523039562769</v>
+        <v>-0.001804523039451044</v>
       </c>
       <c r="C26">
-        <v>0.002603633731764171</v>
+        <v>0.002603633731741751</v>
       </c>
       <c r="D26">
-        <v>-0.693078683667253</v>
+        <v>-0.69307868363031</v>
       </c>
       <c r="E26">
-        <v>0.4928339740880133</v>
+        <v>0.4928339741109121</v>
       </c>
       <c r="F26">
-        <v>-0.007090180520677239</v>
+        <v>-0.007090180520519998</v>
       </c>
       <c r="G26">
-        <v>0.0034811344415517</v>
+        <v>0.00348113444161791</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1156,22 +1156,22 @@
         </is>
       </c>
       <c r="B27">
-        <v>-0.003073927963376515</v>
+        <v>-0.003073927963376937</v>
       </c>
       <c r="C27">
-        <v>0.004333147767754061</v>
+        <v>0.004333147767754196</v>
       </c>
       <c r="D27">
-        <v>-0.7093983699913793</v>
+        <v>-0.7093983699914547</v>
       </c>
       <c r="E27">
-        <v>0.4906056401519215</v>
+        <v>0.4906056401518764</v>
       </c>
       <c r="F27">
-        <v>-0.0124351245846541</v>
+        <v>-0.01243512458465481</v>
       </c>
       <c r="G27">
-        <v>0.006287268657901071</v>
+        <v>0.00628726865790094</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1186,22 +1186,22 @@
         </is>
       </c>
       <c r="B28">
-        <v>-0.001206258712007567</v>
+        <v>-0.001206258712016396</v>
       </c>
       <c r="C28">
-        <v>0.00316969693076304</v>
+        <v>0.003169696930765208</v>
       </c>
       <c r="D28">
-        <v>-0.3805596365697919</v>
+        <v>-0.3805596365723169</v>
       </c>
       <c r="E28">
-        <v>0.7052818120206092</v>
+        <v>0.7052818120187481</v>
       </c>
       <c r="F28">
-        <v>-0.007586527713848911</v>
+        <v>-0.007586527713862102</v>
       </c>
       <c r="G28">
-        <v>0.005174010289833776</v>
+        <v>0.005174010289829311</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1216,22 +1216,22 @@
         </is>
       </c>
       <c r="B29">
-        <v>0.006030756549681238</v>
+        <v>0.006030756549681543</v>
       </c>
       <c r="C29">
-        <v>0.003666352919659492</v>
+        <v>0.00366635291966017</v>
       </c>
       <c r="D29">
-        <v>1.644892535397639</v>
+        <v>1.644892535397418</v>
       </c>
       <c r="E29">
-        <v>0.1282375897838679</v>
+        <v>0.1282375897839141</v>
       </c>
       <c r="F29">
-        <v>-0.002038831818147955</v>
+        <v>-0.002038831818149142</v>
       </c>
       <c r="G29">
-        <v>0.01410034491751043</v>
+        <v>0.01410034491751223</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1246,22 +1246,22 @@
         </is>
       </c>
       <c r="B30">
-        <v>0.0009597484094436224</v>
+        <v>0.0009597484094383461</v>
       </c>
       <c r="C30">
-        <v>0.001774148359218568</v>
+        <v>0.001774148359218252</v>
       </c>
       <c r="D30">
-        <v>0.5409628819690977</v>
+        <v>0.5409628819662199</v>
       </c>
       <c r="E30">
-        <v>0.5935192351084615</v>
+        <v>0.5935192351104146</v>
       </c>
       <c r="F30">
-        <v>-0.002701913837262301</v>
+        <v>-0.002701913837266926</v>
       </c>
       <c r="G30">
-        <v>0.004621410656149546</v>
+        <v>0.004621410656143619</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -1276,22 +1276,22 @@
         </is>
       </c>
       <c r="B31">
-        <v>-0.002473487492393074</v>
+        <v>-0.002473487492390039</v>
       </c>
       <c r="C31">
-        <v>0.00422036343154496</v>
+        <v>0.004220363431546386</v>
       </c>
       <c r="D31">
-        <v>-0.5860840026015479</v>
+        <v>-0.5860840026006308</v>
       </c>
       <c r="E31">
-        <v>0.565520112619848</v>
+        <v>0.5655201126204503</v>
       </c>
       <c r="F31">
-        <v>-0.0113776760043847</v>
+        <v>-0.01137767600438467</v>
       </c>
       <c r="G31">
-        <v>0.006430701019598554</v>
+        <v>0.006430701019604598</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1306,22 +1306,22 @@
         </is>
       </c>
       <c r="B32">
-        <v>0.003620004195429914</v>
+        <v>0.003620004195426825</v>
       </c>
       <c r="C32">
-        <v>0.00123547974841565</v>
+        <v>0.001235479748414396</v>
       </c>
       <c r="D32">
-        <v>2.930039282369558</v>
+        <v>2.930039282370033</v>
       </c>
       <c r="E32">
-        <v>0.01675593700441618</v>
+        <v>0.01675593700440326</v>
       </c>
       <c r="F32">
-        <v>0.0008251548330593271</v>
+        <v>0.0008251548330590751</v>
       </c>
       <c r="G32">
-        <v>0.006414853557800502</v>
+        <v>0.006414853557794576</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -1336,22 +1336,22 @@
         </is>
       </c>
       <c r="B33">
-        <v>-0.01152471446090871</v>
+        <v>-0.01152471446090091</v>
       </c>
       <c r="C33">
-        <v>0.002818820973957333</v>
+        <v>0.002818820973957235</v>
       </c>
       <c r="D33">
-        <v>-4.0884875511371</v>
+        <v>-4.088487551134476</v>
       </c>
       <c r="E33">
-        <v>0.001280474245933235</v>
+        <v>0.001280474245939535</v>
       </c>
       <c r="F33">
-        <v>-0.01761440694122605</v>
+        <v>-0.01761440694121804</v>
       </c>
       <c r="G33">
-        <v>-0.005435021980591372</v>
+        <v>-0.005435021980583782</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -1366,22 +1366,22 @@
         </is>
       </c>
       <c r="B34">
-        <v>-0.02403585081072919</v>
+        <v>-0.02403585081073015</v>
       </c>
       <c r="C34">
         <v>0.005902213636971414</v>
       </c>
       <c r="D34">
-        <v>-4.072345104583953</v>
+        <v>-4.072345104584117</v>
       </c>
       <c r="E34">
-        <v>0.0002531116722300562</v>
+        <v>0.0002531116722299365</v>
       </c>
       <c r="F34">
-        <v>-0.03601798150937215</v>
+        <v>-0.03601798150937311</v>
       </c>
       <c r="G34">
-        <v>-0.01205372011208623</v>
+        <v>-0.0120537201120872</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -1396,22 +1396,22 @@
         </is>
       </c>
       <c r="B35">
-        <v>0.004884348836445038</v>
+        <v>0.004884348836430465</v>
       </c>
       <c r="C35">
-        <v>0.004484336585835762</v>
+        <v>0.004484336585837717</v>
       </c>
       <c r="D35">
-        <v>1.089202102240219</v>
+        <v>1.089202102236494</v>
       </c>
       <c r="E35">
-        <v>0.3257543787821006</v>
+        <v>0.3257543787835936</v>
       </c>
       <c r="F35">
-        <v>-0.006643005335983734</v>
+        <v>-0.006643005336003333</v>
       </c>
       <c r="G35">
-        <v>0.01641170300887381</v>
+        <v>0.01641170300886426</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -1426,22 +1426,22 @@
         </is>
       </c>
       <c r="B36">
-        <v>0.01326977982323713</v>
+        <v>0.013269779823236</v>
       </c>
       <c r="C36">
-        <v>0.004063118419314729</v>
+        <v>0.00406311841931436</v>
       </c>
       <c r="D36">
-        <v>3.265910183704458</v>
+        <v>3.265910183704475</v>
       </c>
       <c r="E36">
-        <v>0.009746214872240035</v>
+        <v>0.009746214872239778</v>
       </c>
       <c r="F36">
-        <v>0.004078367387687</v>
+        <v>0.004078367387686698</v>
       </c>
       <c r="G36">
-        <v>0.02246119225878727</v>
+        <v>0.0224611922587853</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -1456,22 +1456,22 @@
         </is>
       </c>
       <c r="B37">
-        <v>0.006558185729297977</v>
+        <v>0.006558185729302766</v>
       </c>
       <c r="C37">
-        <v>0.002152909217553681</v>
+        <v>0.002152909217553729</v>
       </c>
       <c r="D37">
-        <v>3.046197060157487</v>
+        <v>3.046197060159643</v>
       </c>
       <c r="E37">
-        <v>0.006137065839064496</v>
+        <v>0.006137065839034137</v>
       </c>
       <c r="F37">
-        <v>0.002080965914031506</v>
+        <v>0.002080965914036195</v>
       </c>
       <c r="G37">
-        <v>0.01103540554456445</v>
+        <v>0.01103540554456934</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -1486,22 +1486,22 @@
         </is>
       </c>
       <c r="B38">
-        <v>-0.003150095456157266</v>
+        <v>-0.003150095456153823</v>
       </c>
       <c r="C38">
-        <v>0.003646214037786901</v>
+        <v>0.003646214037788727</v>
       </c>
       <c r="D38">
-        <v>-0.8639359685174276</v>
+        <v>-0.8639359685160503</v>
       </c>
       <c r="E38">
-        <v>0.4078676935554409</v>
+        <v>0.4078676935561624</v>
       </c>
       <c r="F38">
-        <v>-0.01127436661640801</v>
+        <v>-0.01127436661640863</v>
       </c>
       <c r="G38">
-        <v>0.004974175704093475</v>
+        <v>0.004974175704100989</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="B39">
-        <v>-0.001098643890591981</v>
+        <v>-0.001098643890595734</v>
       </c>
       <c r="C39">
-        <v>0.003484722711119452</v>
+        <v>0.003484722711118069</v>
       </c>
       <c r="D39">
-        <v>-0.3152744082294705</v>
+        <v>-0.3152744082306724</v>
       </c>
       <c r="E39">
-        <v>0.7579685474645511</v>
+        <v>0.7579685474636609</v>
       </c>
       <c r="F39">
-        <v>-0.008691202441411808</v>
+        <v>-0.008691202441412549</v>
       </c>
       <c r="G39">
-        <v>0.006493914660227847</v>
+        <v>0.006493914660221083</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -1546,22 +1546,22 @@
         </is>
       </c>
       <c r="B40">
-        <v>0.001543625317710092</v>
+        <v>0.001543625317708217</v>
       </c>
       <c r="C40">
-        <v>0.001450458872365183</v>
+        <v>0.001450458872364049</v>
       </c>
       <c r="D40">
-        <v>1.064232393706544</v>
+        <v>1.064232393706082</v>
       </c>
       <c r="E40">
-        <v>0.2966489988777793</v>
+        <v>0.2966489988779844</v>
       </c>
       <c r="F40">
-        <v>-0.001432470459508372</v>
+        <v>-0.001432470459507921</v>
       </c>
       <c r="G40">
-        <v>0.004519721094928557</v>
+        <v>0.004519721094924356</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -1576,22 +1576,22 @@
         </is>
       </c>
       <c r="B41">
-        <v>-0.003300850377905177</v>
+        <v>-0.003300850377905016</v>
       </c>
       <c r="C41">
-        <v>0.003921115758781824</v>
+        <v>0.003921115758781863</v>
       </c>
       <c r="D41">
-        <v>-0.8418140603251802</v>
+        <v>-0.8418140603251307</v>
       </c>
       <c r="E41">
-        <v>0.4163534878909145</v>
+        <v>0.4163534878909411</v>
       </c>
       <c r="F41">
-        <v>-0.01184422769974936</v>
+        <v>-0.01184422769974929</v>
       </c>
       <c r="G41">
-        <v>0.005242526943939011</v>
+        <v>0.005242526943939257</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B42">
-        <v>-0.01183813161329247</v>
+        <v>-0.01183813161332117</v>
       </c>
       <c r="C42">
-        <v>0.007585669011401661</v>
+        <v>0.007585669011388264</v>
       </c>
       <c r="D42">
-        <v>-1.560591636083665</v>
+        <v>-1.560591636090204</v>
       </c>
       <c r="E42">
-        <v>0.1572420378758776</v>
+        <v>0.1572420378743482</v>
       </c>
       <c r="F42">
-        <v>-0.0293307157218748</v>
+        <v>-0.02933071572187261</v>
       </c>
       <c r="G42">
-        <v>0.005654452495289852</v>
+        <v>0.00565445249523026</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -1636,22 +1636,22 @@
         </is>
       </c>
       <c r="B43">
-        <v>-0.01288132842004252</v>
+        <v>-0.01288132842005224</v>
       </c>
       <c r="C43">
-        <v>0.007463024753311976</v>
+        <v>0.007463024753313097</v>
       </c>
       <c r="D43">
-        <v>-1.726019790343852</v>
+        <v>-1.726019790344895</v>
       </c>
       <c r="E43">
-        <v>0.1035993361504478</v>
+        <v>0.1035993361502558</v>
       </c>
       <c r="F43">
-        <v>-0.02870223414280797</v>
+        <v>-0.02870223414282006</v>
       </c>
       <c r="G43">
-        <v>0.002939577302722936</v>
+        <v>0.002939577302715593</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -1666,22 +1666,22 @@
         </is>
       </c>
       <c r="B44">
-        <v>-0.002527609699483819</v>
+        <v>-0.002527609699437288</v>
       </c>
       <c r="C44">
-        <v>0.007675566102451019</v>
+        <v>0.007675566102457882</v>
       </c>
       <c r="D44">
-        <v>-0.3293059646345413</v>
+        <v>-0.3293059646281846</v>
       </c>
       <c r="E44">
-        <v>0.7584459771768803</v>
+        <v>0.7584459771813394</v>
       </c>
       <c r="F44">
-        <v>-0.02383839763425605</v>
+        <v>-0.02383839763422858</v>
       </c>
       <c r="G44">
-        <v>0.01878317823528842</v>
+        <v>0.018783178235354</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -1696,22 +1696,22 @@
         </is>
       </c>
       <c r="B45">
-        <v>0.001249078797165937</v>
+        <v>0.001249078797151041</v>
       </c>
       <c r="C45">
-        <v>0.003813326904751663</v>
+        <v>0.003813326904750264</v>
       </c>
       <c r="D45">
-        <v>0.327556180827167</v>
+        <v>0.3275561808233811</v>
       </c>
       <c r="E45">
-        <v>0.7543745679743153</v>
+        <v>0.7543745679770391</v>
       </c>
       <c r="F45">
-        <v>-0.008081795998360871</v>
+        <v>-0.008081795998372341</v>
       </c>
       <c r="G45">
-        <v>0.01057995359269274</v>
+        <v>0.01057995359267442</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -1756,22 +1756,22 @@
         </is>
       </c>
       <c r="B47">
-        <v>0.0008800882020408797</v>
+        <v>0.0008800882020428313</v>
       </c>
       <c r="C47">
-        <v>0.003623418555613552</v>
+        <v>0.003623418555616568</v>
       </c>
       <c r="D47">
-        <v>0.2428889151316538</v>
+        <v>0.2428889151319902</v>
       </c>
       <c r="E47">
-        <v>0.8200381237190976</v>
+        <v>0.8200381237188543</v>
       </c>
       <c r="F47">
-        <v>-0.009180134510775225</v>
+        <v>-0.009180134510781647</v>
       </c>
       <c r="G47">
-        <v>0.01094031091485699</v>
+        <v>0.01094031091486731</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -1816,22 +1816,22 @@
         </is>
       </c>
       <c r="B49">
-        <v>-0.005514410636390455</v>
+        <v>-0.005514410636417866</v>
       </c>
       <c r="C49">
-        <v>0.004606897343484209</v>
+        <v>0.004606897343491211</v>
       </c>
       <c r="D49">
-        <v>-1.196990127029809</v>
+        <v>-1.19699012703394</v>
       </c>
       <c r="E49">
-        <v>0.2526829972005183</v>
+        <v>0.2526829971989631</v>
       </c>
       <c r="F49">
-        <v>-0.01546700726079544</v>
+        <v>-0.01546700726083798</v>
       </c>
       <c r="G49">
-        <v>0.00443818598801453</v>
+        <v>0.004438185988002246</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -1846,22 +1846,22 @@
         </is>
       </c>
       <c r="B50">
-        <v>0.008968869413038321</v>
+        <v>0.008968869413038479</v>
       </c>
       <c r="C50">
-        <v>0.01032037099233654</v>
+        <v>0.01032037099233754</v>
       </c>
       <c r="D50">
-        <v>0.8690452523168224</v>
+        <v>0.8690452523167536</v>
       </c>
       <c r="E50">
-        <v>0.4005828756664676</v>
+        <v>0.4005828756665039</v>
       </c>
       <c r="F50">
-        <v>-0.01332693660187334</v>
+        <v>-0.01332693660187534</v>
       </c>
       <c r="G50">
-        <v>0.03126467542794998</v>
+        <v>0.03126467542795229</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -1876,22 +1876,22 @@
         </is>
       </c>
       <c r="B51">
-        <v>0.006161137096994436</v>
+        <v>0.006161137096994769</v>
       </c>
       <c r="C51">
-        <v>0.01005326828334648</v>
+        <v>0.01005326828334669</v>
       </c>
       <c r="D51">
-        <v>0.6128491673897264</v>
+        <v>0.6128491673897468</v>
       </c>
       <c r="E51">
-        <v>0.5485887905084519</v>
+        <v>0.5485887905084387</v>
       </c>
       <c r="F51">
-        <v>-0.01515083961136474</v>
+        <v>-0.01515083961136484</v>
       </c>
       <c r="G51">
-        <v>0.02747311380535361</v>
+        <v>0.02747311380535438</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -1906,22 +1906,22 @@
         </is>
       </c>
       <c r="B52">
-        <v>-0.004674924773194418</v>
+        <v>-0.004674924773198265</v>
       </c>
       <c r="C52">
-        <v>0.01206908080614977</v>
+        <v>0.0120690808061454</v>
       </c>
       <c r="D52">
-        <v>-0.3873472096410457</v>
+        <v>-0.387347209641505</v>
       </c>
       <c r="E52">
-        <v>0.7022211255659121</v>
+        <v>0.702221125565577</v>
       </c>
       <c r="F52">
-        <v>-0.02970466641142584</v>
+        <v>-0.02970466641142062</v>
       </c>
       <c r="G52">
-        <v>0.02035481686503701</v>
+        <v>0.02035481686502408</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -1966,22 +1966,22 @@
         </is>
       </c>
       <c r="B54">
-        <v>-0.00244856796496975</v>
+        <v>-0.002448567964962625</v>
       </c>
       <c r="C54">
-        <v>0.003042829875165421</v>
+        <v>0.003042829875165164</v>
       </c>
       <c r="D54">
-        <v>-0.8047009085043362</v>
+        <v>-0.8047009085020626</v>
       </c>
       <c r="E54">
-        <v>0.4235025052167046</v>
+        <v>0.423502505218009</v>
       </c>
       <c r="F54">
-        <v>-0.008508888883145212</v>
+        <v>-0.008508888883137574</v>
       </c>
       <c r="G54">
-        <v>0.003611752953205712</v>
+        <v>0.003611752953212324</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -1996,22 +1996,22 @@
         </is>
       </c>
       <c r="B55">
-        <v>0.0008557890271376324</v>
+        <v>0.000855789027137074</v>
       </c>
       <c r="C55">
-        <v>0.001137627082773608</v>
+        <v>0.001137627082773774</v>
       </c>
       <c r="D55">
-        <v>0.7522579587778128</v>
+        <v>0.7522579587772127</v>
       </c>
       <c r="E55">
-        <v>0.4937417991789998</v>
+        <v>0.4937417991793232</v>
       </c>
       <c r="F55">
-        <v>-0.002302770118369597</v>
+        <v>-0.002302770118370615</v>
       </c>
       <c r="G55">
-        <v>0.004014348172644862</v>
+        <v>0.004014348172644762</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -2026,22 +2026,22 @@
         </is>
       </c>
       <c r="B56">
-        <v>-0.00450853966232425</v>
+        <v>-0.004508539662328285</v>
       </c>
       <c r="C56">
-        <v>0.002286486523957437</v>
+        <v>0.002286486523957765</v>
       </c>
       <c r="D56">
-        <v>-1.971819914565206</v>
+        <v>-1.971819914566688</v>
       </c>
       <c r="E56">
-        <v>0.07212798433134485</v>
+        <v>0.07212798433115794</v>
       </c>
       <c r="F56">
-        <v>-0.009490365835583939</v>
+        <v>-0.009490365835588689</v>
       </c>
       <c r="G56">
-        <v>0.0004732865109354388</v>
+        <v>0.0004732865109321185</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -2056,22 +2056,22 @@
         </is>
       </c>
       <c r="B57">
-        <v>0.005891058443701575</v>
+        <v>0.005891058443698111</v>
       </c>
       <c r="C57">
-        <v>0.003848742713801437</v>
+        <v>0.003848742713800759</v>
       </c>
       <c r="D57">
-        <v>1.530644909719862</v>
+        <v>1.530644909719231</v>
       </c>
       <c r="E57">
-        <v>0.1366938190926309</v>
+        <v>0.1366938190927863</v>
       </c>
       <c r="F57">
-        <v>-0.001980504239507387</v>
+        <v>-0.001980504239509465</v>
       </c>
       <c r="G57">
-        <v>0.01376262112691054</v>
+        <v>0.01376262112690569</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -2086,22 +2086,22 @@
         </is>
       </c>
       <c r="B58">
-        <v>0.0256847557311662</v>
+        <v>0.02568475573114374</v>
       </c>
       <c r="C58">
-        <v>0.0108488057214991</v>
+        <v>0.01084880572149514</v>
       </c>
       <c r="D58">
-        <v>2.367519189717506</v>
+        <v>2.367519189716301</v>
       </c>
       <c r="E58">
-        <v>0.02138739336016656</v>
+        <v>0.0213873933602297</v>
       </c>
       <c r="F58">
-        <v>0.003951986358989433</v>
+        <v>0.003951986358974913</v>
       </c>
       <c r="G58">
-        <v>0.04741752510334298</v>
+        <v>0.04741752510331257</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -2116,22 +2116,22 @@
         </is>
       </c>
       <c r="B59">
-        <v>-0.001978379793338056</v>
+        <v>-0.001978379793333932</v>
       </c>
       <c r="C59">
-        <v>0.0009708756868043888</v>
+        <v>0.000970875686804366</v>
       </c>
       <c r="D59">
-        <v>-2.037727198473617</v>
+        <v>-2.037727198469417</v>
       </c>
       <c r="E59">
-        <v>0.06246267038987574</v>
+        <v>0.06246267039034801</v>
       </c>
       <c r="F59">
-        <v>-0.004075829196432044</v>
+        <v>-0.00407582919642787</v>
       </c>
       <c r="G59">
-        <v>0.0001190696097559314</v>
+        <v>0.0001190696097600062</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -2146,22 +2146,22 @@
         </is>
       </c>
       <c r="B60">
-        <v>0.001550028419858558</v>
+        <v>0.001550028419858519</v>
       </c>
       <c r="C60">
-        <v>0.00105700080415434</v>
+        <v>0.001057000804154303</v>
       </c>
       <c r="D60">
-        <v>1.466440151953023</v>
+        <v>1.466440151953037</v>
       </c>
       <c r="E60">
-        <v>0.1807021662320922</v>
+        <v>0.1807021662320885</v>
       </c>
       <c r="F60">
-        <v>-0.0008874198054354791</v>
+        <v>-0.0008874198054354332</v>
       </c>
       <c r="G60">
-        <v>0.003987476645152595</v>
+        <v>0.003987476645152471</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -2176,22 +2176,22 @@
         </is>
       </c>
       <c r="B61">
-        <v>-0.008013249793734935</v>
+        <v>-0.008013249793736084</v>
       </c>
       <c r="C61">
-        <v>0.003772852739742843</v>
+        <v>0.003772852739750156</v>
       </c>
       <c r="D61">
-        <v>-2.123923287364011</v>
+        <v>-2.123923287360199</v>
       </c>
       <c r="E61">
-        <v>0.06263703440687787</v>
+        <v>0.06263703440726588</v>
       </c>
       <c r="F61">
-        <v>-0.01654803564312704</v>
+        <v>-0.01654803564314473</v>
       </c>
       <c r="G61">
-        <v>0.0005215360556571676</v>
+        <v>0.0005215360556725633</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -2206,22 +2206,22 @@
         </is>
       </c>
       <c r="B62">
-        <v>0.001065260833914439</v>
+        <v>0.001065260833916528</v>
       </c>
       <c r="C62">
-        <v>0.002283999929942548</v>
+        <v>0.00228399992994197</v>
       </c>
       <c r="D62">
-        <v>0.4664014302054882</v>
+        <v>0.4664014302065209</v>
       </c>
       <c r="E62">
-        <v>0.6520111706582673</v>
+        <v>0.6520111706575561</v>
       </c>
       <c r="F62">
-        <v>-0.004101505967435695</v>
+        <v>-0.004101505967432298</v>
       </c>
       <c r="G62">
-        <v>0.006232027635264574</v>
+        <v>0.006232027635265354</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>

--- a/results/all_tes.xlsx
+++ b/results/all_tes.xlsx
@@ -406,22 +406,22 @@
         </is>
       </c>
       <c r="B2">
-        <v>-0.00729356738051516</v>
+        <v>-0.006408712733846348</v>
       </c>
       <c r="C2">
-        <v>0.002454100773757984</v>
+        <v>0.001940820291161697</v>
       </c>
       <c r="D2">
-        <v>-2.971991801847022</v>
+        <v>-3.302063958745171</v>
       </c>
       <c r="E2">
-        <v>0.005487531230675743</v>
+        <v>0.002313039200824071</v>
       </c>
       <c r="F2">
-        <v>-0.01228647294620804</v>
+        <v>-0.0103573413058149</v>
       </c>
       <c r="G2">
-        <v>-0.002300661814822284</v>
+        <v>-0.002460084161877797</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -436,22 +436,22 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.0005683257062771125</v>
+        <v>0.0005791180138258985</v>
       </c>
       <c r="C3">
-        <v>0.004568033203943539</v>
+        <v>0.003548040373822167</v>
       </c>
       <c r="D3">
-        <v>0.1244136548277456</v>
+        <v>0.1632219345920342</v>
       </c>
       <c r="E3">
-        <v>0.9024470476255319</v>
+        <v>0.8722683403433715</v>
       </c>
       <c r="F3">
-        <v>-0.009069381907462801</v>
+        <v>-0.006906592837645654</v>
       </c>
       <c r="G3">
-        <v>0.01020603332001703</v>
+        <v>0.008064828865297451</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -466,22 +466,22 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.001213215923259447</v>
+        <v>0.0008169491242655833</v>
       </c>
       <c r="C4">
-        <v>0.003890933276051978</v>
+        <v>0.003923753813205329</v>
       </c>
       <c r="D4">
-        <v>0.3118058926187662</v>
+        <v>0.2082060096421326</v>
       </c>
       <c r="E4">
-        <v>0.7615919182682918</v>
+        <v>0.8392475114816019</v>
       </c>
       <c r="F4">
-        <v>-0.007456323679598199</v>
+        <v>-0.007925719192566504</v>
       </c>
       <c r="G4">
-        <v>0.009882755526117094</v>
+        <v>0.00955961744109767</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -496,22 +496,22 @@
         </is>
       </c>
       <c r="B5">
-        <v>0.003138518712511355</v>
+        <v>0.003434532796995206</v>
       </c>
       <c r="C5">
-        <v>0.002939435758693633</v>
+        <v>0.003735425880955349</v>
       </c>
       <c r="D5">
-        <v>1.067728288746885</v>
+        <v>0.9194487874878704</v>
       </c>
       <c r="E5">
-        <v>0.3014890309531868</v>
+        <v>0.3715153792774145</v>
       </c>
       <c r="F5">
-        <v>-0.003092806729063725</v>
+        <v>-0.00448421632289026</v>
       </c>
       <c r="G5">
-        <v>0.009369844154086437</v>
+        <v>0.01135328191688067</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -526,22 +526,22 @@
         </is>
       </c>
       <c r="B6">
-        <v>-0.005878747871894292</v>
+        <v>-0.005812425198793584</v>
       </c>
       <c r="C6">
-        <v>0.006661030111987211</v>
+        <v>0.001729812329072236</v>
       </c>
       <c r="D6">
-        <v>-0.8825583690598964</v>
+        <v>-3.360147861768917</v>
       </c>
       <c r="E6">
-        <v>0.3948109405471919</v>
+        <v>0.006362223863269101</v>
       </c>
       <c r="F6">
-        <v>-0.02039188573869176</v>
+        <v>-0.00961971646482513</v>
       </c>
       <c r="G6">
-        <v>0.00863438999490318</v>
+        <v>-0.002005133932762037</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -556,22 +556,22 @@
         </is>
       </c>
       <c r="B7">
-        <v>-0.002142450939168008</v>
+        <v>-0.002023006422582925</v>
       </c>
       <c r="C7">
-        <v>0.006472308608898863</v>
+        <v>0.005594880196898038</v>
       </c>
       <c r="D7">
-        <v>-0.3310180445076929</v>
+        <v>-0.3615817231805138</v>
       </c>
       <c r="E7">
-        <v>0.7463394800467411</v>
+        <v>0.7239511503237235</v>
       </c>
       <c r="F7">
-        <v>-0.0162443999738025</v>
+        <v>-0.01421320317603548</v>
       </c>
       <c r="G7">
-        <v>0.01195949809546649</v>
+        <v>0.01016719033086963</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -586,22 +586,22 @@
         </is>
       </c>
       <c r="B8">
-        <v>-0.002289452874416052</v>
+        <v>-0.003299778566979954</v>
       </c>
       <c r="C8">
-        <v>0.01105730979453781</v>
+        <v>0.001473327140706588</v>
       </c>
       <c r="D8">
-        <v>-0.2070533354819286</v>
+        <v>-2.239678124301316</v>
       </c>
       <c r="E8">
-        <v>0.8428163776149078</v>
+        <v>0.06637643971547548</v>
       </c>
       <c r="F8">
-        <v>-0.02934571525245195</v>
+        <v>-0.006904880208188436</v>
       </c>
       <c r="G8">
-        <v>0.02476680950361985</v>
+        <v>0.0003053230742285284</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -616,22 +616,22 @@
         </is>
       </c>
       <c r="B9">
-        <v>-0.001196635411224818</v>
+        <v>-0.001068327023729513</v>
       </c>
       <c r="C9">
-        <v>0.002470503472306692</v>
+        <v>0.000501323666833889</v>
       </c>
       <c r="D9">
-        <v>-0.484369046487325</v>
+        <v>-2.131012546199015</v>
       </c>
       <c r="E9">
-        <v>0.6396933416320457</v>
+        <v>0.06568932649764611</v>
       </c>
       <c r="F9">
-        <v>-0.006785302536821238</v>
+        <v>-0.002224381472524176</v>
       </c>
       <c r="G9">
-        <v>0.004392031714371602</v>
+        <v>8.772742506515095e-05</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -646,22 +646,22 @@
         </is>
       </c>
       <c r="B10">
-        <v>0.01661153624792903</v>
+        <v>0.01689577209705717</v>
       </c>
       <c r="C10">
-        <v>0.008415340757506386</v>
+        <v>0.004648879570016102</v>
       </c>
       <c r="D10">
-        <v>1.973958836201818</v>
+        <v>3.63437508814595</v>
       </c>
       <c r="E10">
-        <v>0.07002487113867649</v>
+        <v>0.003026317587873509</v>
       </c>
       <c r="F10">
-        <v>-0.001568702158041609</v>
+        <v>0.006852478386324167</v>
       </c>
       <c r="G10">
-        <v>0.03479177465389968</v>
+        <v>0.02693906580779018</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="B11">
-        <v>-0.005026733717610445</v>
+        <v>-0.00441608163328763</v>
       </c>
       <c r="C11">
-        <v>0.0142305721575699</v>
+        <v>0.01309741815932068</v>
       </c>
       <c r="D11">
-        <v>-0.3532348286457683</v>
+        <v>-0.3371719204173808</v>
       </c>
       <c r="E11">
-        <v>0.7312453625925304</v>
+        <v>0.7437172341818236</v>
       </c>
       <c r="F11">
-        <v>-0.03673442442788608</v>
+        <v>-0.03404449993655818</v>
       </c>
       <c r="G11">
-        <v>0.02668095699266519</v>
+        <v>0.02521233666998293</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -706,22 +706,22 @@
         </is>
       </c>
       <c r="B12">
-        <v>-0.01688574332766693</v>
+        <v>-0.01610283501056433</v>
       </c>
       <c r="C12">
-        <v>0.006347551281024924</v>
+        <v>0.001356540497392763</v>
       </c>
       <c r="D12">
-        <v>-2.660198016539763</v>
+        <v>-11.87051550728753</v>
       </c>
       <c r="E12">
-        <v>0.01210232769001062</v>
+        <v>9.06052085580214e-12</v>
       </c>
       <c r="F12">
-        <v>-0.02981528218130948</v>
+        <v>-0.01889668246331586</v>
       </c>
       <c r="G12">
-        <v>-0.003956204474024385</v>
+        <v>-0.0133089875578128</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="B13">
-        <v>-0.01181376286471418</v>
+        <v>-0.01121890426019655</v>
       </c>
       <c r="C13">
-        <v>0.009555848769330277</v>
+        <v>0.008322528102518986</v>
       </c>
       <c r="D13">
-        <v>-1.236286085086521</v>
+        <v>-1.348016386607444</v>
       </c>
       <c r="E13">
-        <v>0.2420998574660728</v>
+        <v>0.2047574629848498</v>
       </c>
       <c r="F13">
-        <v>-0.03284604419809006</v>
+        <v>-0.02953666510828646</v>
       </c>
       <c r="G13">
-        <v>0.009218518468661714</v>
+        <v>0.007098856587893365</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -766,22 +766,22 @@
         </is>
       </c>
       <c r="B14">
-        <v>0.01360807867378952</v>
+        <v>0.01302899656260106</v>
       </c>
       <c r="C14">
-        <v>0.01220192570160644</v>
+        <v>0.008919483073732366</v>
       </c>
       <c r="D14">
-        <v>1.115240250315403</v>
+        <v>1.460734490429283</v>
       </c>
       <c r="E14">
-        <v>0.3074129304791542</v>
+        <v>0.1943902477531635</v>
       </c>
       <c r="F14">
-        <v>-0.01624895793226167</v>
+        <v>-0.008796192276601618</v>
       </c>
       <c r="G14">
-        <v>0.04346511527984071</v>
+        <v>0.03485418540180375</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -796,22 +796,22 @@
         </is>
       </c>
       <c r="B15">
-        <v>-0.003391824666592616</v>
+        <v>-0.002852637203028954</v>
       </c>
       <c r="C15">
-        <v>0.007195042326630838</v>
+        <v>0.00662095129181076</v>
       </c>
       <c r="D15">
-        <v>-0.4714113569615201</v>
+        <v>-0.4308500511938954</v>
       </c>
       <c r="E15">
-        <v>0.6441304411031583</v>
+        <v>0.6727045320664908</v>
       </c>
       <c r="F15">
-        <v>-0.01872769436397326</v>
+        <v>-0.01696486082513241</v>
       </c>
       <c r="G15">
-        <v>0.01194404503078803</v>
+        <v>0.0112595864190745</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -826,22 +826,22 @@
         </is>
       </c>
       <c r="B16">
-        <v>0.003822955285429089</v>
+        <v>0.003788879596591542</v>
       </c>
       <c r="C16">
-        <v>0.005495340325683597</v>
+        <v>0.00541626846180558</v>
       </c>
       <c r="D16">
-        <v>0.6956721620245658</v>
+        <v>0.6995368902612468</v>
       </c>
       <c r="E16">
-        <v>0.5024805259636265</v>
+        <v>0.5001646424773251</v>
       </c>
       <c r="F16">
-        <v>-0.008421425999113438</v>
+        <v>-0.008279318595945405</v>
       </c>
       <c r="G16">
-        <v>0.01606733656997162</v>
+        <v>0.01585707778912849</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -856,22 +856,22 @@
         </is>
       </c>
       <c r="B17">
-        <v>-0.005020572860741777</v>
+        <v>-0.005297350666044967</v>
       </c>
       <c r="C17">
-        <v>0.005129993470815072</v>
+        <v>0.001581718778827342</v>
       </c>
       <c r="D17">
-        <v>-0.9786704192323447</v>
+        <v>-3.349110307694727</v>
       </c>
       <c r="E17">
-        <v>0.3508251127673432</v>
+        <v>0.007376384479895584</v>
       </c>
       <c r="F17">
-        <v>-0.01645091062350075</v>
+        <v>-0.008821639730066451</v>
       </c>
       <c r="G17">
-        <v>0.006409764902017199</v>
+        <v>-0.001773061602023482</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -886,22 +886,22 @@
         </is>
       </c>
       <c r="B18">
-        <v>0.01103149172502244</v>
+        <v>0.01164368740967255</v>
       </c>
       <c r="C18">
-        <v>0.01087545702076173</v>
+        <v>0.001967935201217303</v>
       </c>
       <c r="D18">
-        <v>1.014347415833913</v>
+        <v>5.916702644716213</v>
       </c>
       <c r="E18">
-        <v>0.3343303106339235</v>
+        <v>0.0005894692961038611</v>
       </c>
       <c r="F18">
-        <v>-0.01320053659604366</v>
+        <v>0.006990260107310989</v>
       </c>
       <c r="G18">
-        <v>0.03526352004608855</v>
+        <v>0.01629711471203411</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -916,22 +916,22 @@
         </is>
       </c>
       <c r="B19">
-        <v>0.002585021580033122</v>
+        <v>0.001701962272286732</v>
       </c>
       <c r="C19">
-        <v>0.005106795419591495</v>
+        <v>0.005942596326996347</v>
       </c>
       <c r="D19">
-        <v>0.5061925077546779</v>
+        <v>0.2864004516939786</v>
       </c>
       <c r="E19">
-        <v>0.6342447993868341</v>
+        <v>0.7860591659419305</v>
       </c>
       <c r="F19">
-        <v>-0.0105424139638795</v>
+        <v>-0.01357396790240915</v>
       </c>
       <c r="G19">
-        <v>0.01571245712394575</v>
+        <v>0.01697789244698262</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -946,22 +946,22 @@
         </is>
       </c>
       <c r="B20">
-        <v>0.01048301606514956</v>
+        <v>0.008275052808404484</v>
       </c>
       <c r="C20">
-        <v>0.0133467457637111</v>
+        <v>0.005905853220602632</v>
       </c>
       <c r="D20">
-        <v>0.7854361093512523</v>
+        <v>1.40116127159017</v>
       </c>
       <c r="E20">
-        <v>0.4548282316321607</v>
+        <v>0.198744597540648</v>
       </c>
       <c r="F20">
-        <v>-0.02029463485748693</v>
+        <v>-0.005343869140214027</v>
       </c>
       <c r="G20">
-        <v>0.04126066698778605</v>
+        <v>0.021893974757023</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -976,22 +976,22 @@
         </is>
       </c>
       <c r="B21">
-        <v>-0.001112575537462836</v>
+        <v>-0.0009780047631664363</v>
       </c>
       <c r="C21">
-        <v>0.004876063733537996</v>
+        <v>0.002978623261413121</v>
       </c>
       <c r="D21">
-        <v>-0.2281708357933149</v>
+        <v>-0.3283412091203673</v>
       </c>
       <c r="E21">
-        <v>0.8217205076829373</v>
+        <v>0.7459051492977284</v>
       </c>
       <c r="F21">
-        <v>-0.01125290518550299</v>
+        <v>-0.007172390935829079</v>
       </c>
       <c r="G21">
-        <v>0.009027754110577322</v>
+        <v>0.005216381409496206</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1006,22 +1006,22 @@
         </is>
       </c>
       <c r="B22">
-        <v>0.0060906219649375</v>
+        <v>0.006126274827757764</v>
       </c>
       <c r="C22">
-        <v>0.01083373482411645</v>
+        <v>0.01022949252203507</v>
       </c>
       <c r="D22">
-        <v>0.5621904231382389</v>
+        <v>0.5988835530757095</v>
       </c>
       <c r="E22">
-        <v>0.587712627053038</v>
+        <v>0.5640184777986516</v>
       </c>
       <c r="F22">
-        <v>-0.01841698886729387</v>
+        <v>-0.01701444495275455</v>
       </c>
       <c r="G22">
-        <v>0.03059823279716887</v>
+        <v>0.02926699460827008</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1036,22 +1036,22 @@
         </is>
       </c>
       <c r="B23">
-        <v>0.005018549946045139</v>
+        <v>0.004846184589639748</v>
       </c>
       <c r="C23">
-        <v>0.004056401450141312</v>
+        <v>0.002940554816497857</v>
       </c>
       <c r="D23">
-        <v>1.237192622014842</v>
+        <v>1.648051096497313</v>
       </c>
       <c r="E23">
-        <v>0.2270735675379208</v>
+        <v>0.117698909117679</v>
       </c>
       <c r="F23">
-        <v>-0.003319502649673966</v>
+        <v>-0.00135784376968022</v>
       </c>
       <c r="G23">
-        <v>0.01335660254176424</v>
+        <v>0.01105021294895972</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1066,22 +1066,22 @@
         </is>
       </c>
       <c r="B24">
-        <v>-0.01232732293113159</v>
+        <v>-0.01283577758469947</v>
       </c>
       <c r="C24">
-        <v>0.002143483433751695</v>
+        <v>0.002435577313889438</v>
       </c>
       <c r="D24">
-        <v>-5.751069841279497</v>
+        <v>-5.270117073065392</v>
       </c>
       <c r="E24">
-        <v>0.0002759244214005777</v>
+        <v>0.0005137899312661553</v>
       </c>
       <c r="F24">
-        <v>-0.01717621933413228</v>
+        <v>-0.01834543625086327</v>
       </c>
       <c r="G24">
-        <v>-0.007478426528130901</v>
+        <v>-0.007326118918535669</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="B25">
-        <v>-0.003180151962445418</v>
+        <v>-0.002828021861863616</v>
       </c>
       <c r="C25">
-        <v>0.005510187078716886</v>
+        <v>0.001241281685617067</v>
       </c>
       <c r="D25">
-        <v>-0.5771404703714625</v>
+        <v>-2.278307893069208</v>
       </c>
       <c r="E25">
-        <v>0.5678831132673898</v>
+        <v>0.02952574435612238</v>
       </c>
       <c r="F25">
-        <v>-0.01440403575178685</v>
+        <v>-0.00535642991592338</v>
       </c>
       <c r="G25">
-        <v>0.008043731826896019</v>
+        <v>-0.0002996138078038518</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1126,22 +1126,22 @@
         </is>
       </c>
       <c r="B26">
-        <v>-0.001804523039451044</v>
+        <v>-0.002069450384484105</v>
       </c>
       <c r="C26">
-        <v>0.002603633731741751</v>
+        <v>0.0008535378399503663</v>
       </c>
       <c r="D26">
-        <v>-0.69307868363031</v>
+        <v>-2.424556109433232</v>
       </c>
       <c r="E26">
-        <v>0.4928339741109121</v>
+        <v>0.0206288244971727</v>
       </c>
       <c r="F26">
-        <v>-0.007090180520519998</v>
+        <v>-0.003802224320429015</v>
       </c>
       <c r="G26">
-        <v>0.00348113444161791</v>
+        <v>-0.0003366764485391942</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1156,22 +1156,22 @@
         </is>
       </c>
       <c r="B27">
-        <v>-0.003073927963376937</v>
+        <v>-0.002678080211227694</v>
       </c>
       <c r="C27">
-        <v>0.004333147767754196</v>
+        <v>0.004323906818026845</v>
       </c>
       <c r="D27">
-        <v>-0.7093983699914547</v>
+        <v>-0.619365847585448</v>
       </c>
       <c r="E27">
-        <v>0.4906056401518764</v>
+        <v>0.5463774125237579</v>
       </c>
       <c r="F27">
-        <v>-0.01243512458465481</v>
+        <v>-0.01201931297435865</v>
       </c>
       <c r="G27">
-        <v>0.00628726865790094</v>
+        <v>0.006663152551903265</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1186,22 +1186,22 @@
         </is>
       </c>
       <c r="B28">
-        <v>-0.001206258712016396</v>
+        <v>-0.0009675500681245819</v>
       </c>
       <c r="C28">
-        <v>0.003169696930765208</v>
+        <v>0.001331124897898903</v>
       </c>
       <c r="D28">
-        <v>-0.3805596365723169</v>
+        <v>-0.7268664793602758</v>
       </c>
       <c r="E28">
-        <v>0.7052818120187481</v>
+        <v>0.4709907796507427</v>
       </c>
       <c r="F28">
-        <v>-0.007586527713862102</v>
+        <v>-0.003646965516717357</v>
       </c>
       <c r="G28">
-        <v>0.005174010289829311</v>
+        <v>0.001711865380468193</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1216,22 +1216,22 @@
         </is>
       </c>
       <c r="B29">
-        <v>0.006030756549681543</v>
+        <v>0.00591725899001792</v>
       </c>
       <c r="C29">
-        <v>0.00366635291966017</v>
+        <v>0.004372624405385489</v>
       </c>
       <c r="D29">
-        <v>1.644892535397418</v>
+        <v>1.353251146549427</v>
       </c>
       <c r="E29">
-        <v>0.1282375897839141</v>
+        <v>0.2129702089899237</v>
       </c>
       <c r="F29">
-        <v>-0.002038831818149142</v>
+        <v>-0.004166030970495675</v>
       </c>
       <c r="G29">
-        <v>0.01410034491751223</v>
+        <v>0.01600054895053151</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1246,22 +1246,22 @@
         </is>
       </c>
       <c r="B30">
-        <v>0.0009597484094383461</v>
+        <v>0.0007505194868331609</v>
       </c>
       <c r="C30">
-        <v>0.001774148359218252</v>
+        <v>0.00123698415166411</v>
       </c>
       <c r="D30">
-        <v>0.5409628819662199</v>
+        <v>0.6067333084449705</v>
       </c>
       <c r="E30">
-        <v>0.5935192351104146</v>
+        <v>0.5497249872867039</v>
       </c>
       <c r="F30">
-        <v>-0.002701913837266926</v>
+        <v>-0.00180249032454306</v>
       </c>
       <c r="G30">
-        <v>0.004621410656143619</v>
+        <v>0.003303529298209382</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -1276,22 +1276,22 @@
         </is>
       </c>
       <c r="B31">
-        <v>-0.002473487492390039</v>
+        <v>-0.002274577277082905</v>
       </c>
       <c r="C31">
-        <v>0.004220363431546386</v>
+        <v>0.003630953344736524</v>
       </c>
       <c r="D31">
-        <v>-0.5860840026006308</v>
+        <v>-0.6264407887201747</v>
       </c>
       <c r="E31">
-        <v>0.5655201126204503</v>
+        <v>0.5393474230874238</v>
       </c>
       <c r="F31">
-        <v>-0.01137767600438467</v>
+        <v>-0.009935219206194008</v>
       </c>
       <c r="G31">
-        <v>0.006430701019604598</v>
+        <v>0.005386064652028198</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1306,22 +1306,22 @@
         </is>
       </c>
       <c r="B32">
-        <v>0.003620004195426825</v>
+        <v>0.003591659107520689</v>
       </c>
       <c r="C32">
-        <v>0.001235479748414396</v>
+        <v>0.001284075917580916</v>
       </c>
       <c r="D32">
-        <v>2.930039282370033</v>
+        <v>2.797076916049522</v>
       </c>
       <c r="E32">
-        <v>0.01675593700440326</v>
+        <v>0.02081178661227014</v>
       </c>
       <c r="F32">
-        <v>0.0008251548330590751</v>
+        <v>0.0006868775729883423</v>
       </c>
       <c r="G32">
-        <v>0.006414853557794576</v>
+        <v>0.006496440642053036</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -1336,22 +1336,22 @@
         </is>
       </c>
       <c r="B33">
-        <v>-0.01152471446090091</v>
+        <v>-0.01116409067716784</v>
       </c>
       <c r="C33">
-        <v>0.002818820973957235</v>
+        <v>1.413938920311557e-12</v>
       </c>
       <c r="D33">
-        <v>-4.088487551134476</v>
+        <v>-7895737585.827165</v>
       </c>
       <c r="E33">
-        <v>0.001280474245939535</v>
+        <v>8.149882686134632e-123</v>
       </c>
       <c r="F33">
-        <v>-0.01761440694121804</v>
+        <v>-0.01116409068022247</v>
       </c>
       <c r="G33">
-        <v>-0.005435021980583782</v>
+        <v>-0.01116409067411321</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -1366,22 +1366,22 @@
         </is>
       </c>
       <c r="B34">
-        <v>-0.02403585081073015</v>
+        <v>-0.02157390184082912</v>
       </c>
       <c r="C34">
-        <v>0.005902213636971414</v>
+        <v>0.007481785927322365</v>
       </c>
       <c r="D34">
-        <v>-4.072345104584117</v>
+        <v>-2.883523005121605</v>
       </c>
       <c r="E34">
-        <v>0.0002531116722299365</v>
+        <v>0.006683430804473857</v>
       </c>
       <c r="F34">
-        <v>-0.03601798150937311</v>
+        <v>-0.0367627347693581</v>
       </c>
       <c r="G34">
-        <v>-0.0120537201120872</v>
+        <v>-0.006385068912300148</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -1396,22 +1396,22 @@
         </is>
       </c>
       <c r="B35">
-        <v>0.004884348836430465</v>
+        <v>0.004927315473594611</v>
       </c>
       <c r="C35">
-        <v>0.004484336585837717</v>
+        <v>0.003852936966942469</v>
       </c>
       <c r="D35">
-        <v>1.089202102236494</v>
+        <v>1.278846634624476</v>
       </c>
       <c r="E35">
-        <v>0.3257543787835936</v>
+        <v>0.2570884013538454</v>
       </c>
       <c r="F35">
-        <v>-0.006643005336003333</v>
+        <v>-0.004976974307479372</v>
       </c>
       <c r="G35">
-        <v>0.01641170300886426</v>
+        <v>0.01483160525466859</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -1426,22 +1426,22 @@
         </is>
       </c>
       <c r="B36">
-        <v>0.013269779823236</v>
+        <v>0.01294751284029583</v>
       </c>
       <c r="C36">
-        <v>0.00406311841931436</v>
+        <v>0.003919216935726761</v>
       </c>
       <c r="D36">
-        <v>3.265910183704475</v>
+        <v>3.303596879843271</v>
       </c>
       <c r="E36">
-        <v>0.009746214872239778</v>
+        <v>0.01080078014823778</v>
       </c>
       <c r="F36">
-        <v>0.004078367387686698</v>
+        <v>0.003909782379747723</v>
       </c>
       <c r="G36">
-        <v>0.0224611922587853</v>
+        <v>0.02198524330084395</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -1456,22 +1456,22 @@
         </is>
       </c>
       <c r="B37">
-        <v>0.006558185729302766</v>
+        <v>0.006998733758857349</v>
       </c>
       <c r="C37">
-        <v>0.002152909217553729</v>
+        <v>0.002994735612571045</v>
       </c>
       <c r="D37">
-        <v>3.046197060159643</v>
+        <v>2.337012232224662</v>
       </c>
       <c r="E37">
-        <v>0.006137065839034137</v>
+        <v>0.02942320488871314</v>
       </c>
       <c r="F37">
-        <v>0.002080965914036195</v>
+        <v>0.0007708401176555746</v>
       </c>
       <c r="G37">
-        <v>0.01103540554456934</v>
+        <v>0.01322662740005912</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -1486,22 +1486,22 @@
         </is>
       </c>
       <c r="B38">
-        <v>-0.003150095456153823</v>
+        <v>-0.003460751291863062</v>
       </c>
       <c r="C38">
-        <v>0.003646214037788727</v>
+        <v>0.00320892807077611</v>
       </c>
       <c r="D38">
-        <v>-0.8639359685160503</v>
+        <v>-1.07847580735147</v>
       </c>
       <c r="E38">
-        <v>0.4078676935561624</v>
+        <v>0.306148006090386</v>
       </c>
       <c r="F38">
-        <v>-0.01127436661640863</v>
+        <v>-0.01061068859958867</v>
       </c>
       <c r="G38">
-        <v>0.004974175704100989</v>
+        <v>0.00368918601586255</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="B39">
-        <v>-0.001098643890595734</v>
+        <v>-0.001036043929833985</v>
       </c>
       <c r="C39">
-        <v>0.003484722711118069</v>
+        <v>0.003373445510009327</v>
       </c>
       <c r="D39">
-        <v>-0.3152744082306724</v>
+        <v>-0.3071174343145446</v>
       </c>
       <c r="E39">
-        <v>0.7579685474636609</v>
+        <v>0.7640183390922428</v>
       </c>
       <c r="F39">
-        <v>-0.008691202441412549</v>
+        <v>-0.008386150287225615</v>
       </c>
       <c r="G39">
-        <v>0.006493914660221083</v>
+        <v>0.006314062427557644</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -1546,22 +1546,22 @@
         </is>
       </c>
       <c r="B40">
-        <v>0.001543625317708217</v>
+        <v>0.0015282751050356</v>
       </c>
       <c r="C40">
-        <v>0.001450458872364049</v>
+        <v>0.0009103453161776775</v>
       </c>
       <c r="D40">
-        <v>1.064232393706082</v>
+        <v>1.678786146176335</v>
       </c>
       <c r="E40">
-        <v>0.2966489988779844</v>
+        <v>0.104732178370962</v>
       </c>
       <c r="F40">
-        <v>-0.001432470459507921</v>
+        <v>-0.000339599195232652</v>
       </c>
       <c r="G40">
-        <v>0.004519721094924356</v>
+        <v>0.003396149405303853</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -1576,22 +1576,22 @@
         </is>
       </c>
       <c r="B41">
-        <v>-0.003300850377905016</v>
+        <v>-0.002513537078116102</v>
       </c>
       <c r="C41">
-        <v>0.003921115758781863</v>
+        <v>0.002813087576093543</v>
       </c>
       <c r="D41">
-        <v>-0.8418140603251307</v>
+        <v>-0.8935154026049134</v>
       </c>
       <c r="E41">
-        <v>0.4163534878909411</v>
+        <v>0.3891495652283083</v>
       </c>
       <c r="F41">
-        <v>-0.01184422769974929</v>
+        <v>-0.008642728379886198</v>
       </c>
       <c r="G41">
-        <v>0.005242526943939257</v>
+        <v>0.003615654223653995</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B42">
-        <v>-0.01183813161332117</v>
+        <v>-0.01254009959714619</v>
       </c>
       <c r="C42">
-        <v>0.007585669011388264</v>
+        <v>0.007093137600104676</v>
       </c>
       <c r="D42">
-        <v>-1.560591636090204</v>
+        <v>-1.767919967739118</v>
       </c>
       <c r="E42">
-        <v>0.1572420378743482</v>
+        <v>0.1204016592334243</v>
       </c>
       <c r="F42">
-        <v>-0.02933071572187261</v>
+        <v>-0.02931270478623834</v>
       </c>
       <c r="G42">
-        <v>0.00565445249523026</v>
+        <v>0.004232505591945972</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -1636,22 +1636,22 @@
         </is>
       </c>
       <c r="B43">
-        <v>-0.01288132842005224</v>
+        <v>-0.01286239076655746</v>
       </c>
       <c r="C43">
-        <v>0.007463024753313097</v>
+        <v>0.008351234801308607</v>
       </c>
       <c r="D43">
-        <v>-1.726019790344895</v>
+        <v>-1.540178317647346</v>
       </c>
       <c r="E43">
-        <v>0.1035993361502558</v>
+        <v>0.1430594770300306</v>
       </c>
       <c r="F43">
-        <v>-0.02870223414282006</v>
+        <v>-0.03056621767689253</v>
       </c>
       <c r="G43">
-        <v>0.002939577302715593</v>
+        <v>0.004841436143777612</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -1666,22 +1666,22 @@
         </is>
       </c>
       <c r="B44">
-        <v>-0.002527609699437288</v>
+        <v>-0.002894252820373153</v>
       </c>
       <c r="C44">
-        <v>0.007675566102457882</v>
+        <v>0.0002130027552177552</v>
       </c>
       <c r="D44">
-        <v>-0.3293059646281846</v>
+        <v>-13.58786564715712</v>
       </c>
       <c r="E44">
-        <v>0.7584459771813394</v>
+        <v>0.0001698342154581943</v>
       </c>
       <c r="F44">
-        <v>-0.02383839763422858</v>
+        <v>-0.003485643277491133</v>
       </c>
       <c r="G44">
-        <v>0.018783178235354</v>
+        <v>-0.002302862363255173</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -1696,22 +1696,22 @@
         </is>
       </c>
       <c r="B45">
-        <v>0.001249078797151041</v>
+        <v>0.001124016533419776</v>
       </c>
       <c r="C45">
-        <v>0.003813326904750264</v>
+        <v>0.001101685452222746</v>
       </c>
       <c r="D45">
-        <v>0.3275561808233811</v>
+        <v>1.020269924733938</v>
       </c>
       <c r="E45">
-        <v>0.7543745679770391</v>
+        <v>0.3469630286068291</v>
       </c>
       <c r="F45">
-        <v>-0.008081795998372341</v>
+        <v>-0.001571710655858067</v>
       </c>
       <c r="G45">
-        <v>0.01057995359267442</v>
+        <v>0.003819743722697618</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -1726,22 +1726,22 @@
         </is>
       </c>
       <c r="B46">
-        <v>0.0002189622515556041</v>
+        <v>-7.341471957050402e-06</v>
       </c>
       <c r="C46">
-        <v>0.005068793116678111</v>
+        <v>0.005001272849438215</v>
       </c>
       <c r="D46">
-        <v>0.04319810387114465</v>
+        <v>-0.001467920703001648</v>
       </c>
       <c r="E46">
-        <v>0.9656512553329422</v>
+        <v>0.9988324234489019</v>
       </c>
       <c r="F46">
-        <v>-0.009868257519851823</v>
+        <v>-0.009960191629337038</v>
       </c>
       <c r="G46">
-        <v>0.01030618202296303</v>
+        <v>0.009945508685422936</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -1756,22 +1756,22 @@
         </is>
       </c>
       <c r="B47">
-        <v>0.0008800882020428313</v>
+        <v>0.0008800881987553913</v>
       </c>
       <c r="C47">
-        <v>0.003623418555616568</v>
+        <v>0.003623418558398688</v>
       </c>
       <c r="D47">
-        <v>0.2428889151319902</v>
+        <v>0.2428889140382204</v>
       </c>
       <c r="E47">
-        <v>0.8200381237188543</v>
+        <v>0.8200381245096985</v>
       </c>
       <c r="F47">
-        <v>-0.009180134510781647</v>
+        <v>-0.009180134521793492</v>
       </c>
       <c r="G47">
-        <v>0.01094031091486731</v>
+        <v>0.01094031091930428</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -1786,22 +1786,22 @@
         </is>
       </c>
       <c r="B48">
-        <v>0.0005718958797129685</v>
+        <v>0.000533782697248242</v>
       </c>
       <c r="C48">
-        <v>0.009951238590232492</v>
+        <v>0.005048847835949183</v>
       </c>
       <c r="D48">
-        <v>0.05746981891021138</v>
+        <v>0.1057236650008667</v>
       </c>
       <c r="E48">
-        <v>0.9548410513341981</v>
+        <v>0.9170391000212581</v>
       </c>
       <c r="F48">
-        <v>-0.0204233823166956</v>
+        <v>-0.01011835511714737</v>
       </c>
       <c r="G48">
-        <v>0.02156717407612153</v>
+        <v>0.01118592051164386</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -1816,22 +1816,22 @@
         </is>
       </c>
       <c r="B49">
-        <v>-0.005514410636417866</v>
+        <v>-0.005749168289783962</v>
       </c>
       <c r="C49">
-        <v>0.004606897343491211</v>
+        <v>0.002146810644886872</v>
       </c>
       <c r="D49">
-        <v>-1.19699012703394</v>
+        <v>-2.678004370565676</v>
       </c>
       <c r="E49">
-        <v>0.2526829971989631</v>
+        <v>0.01897286988853953</v>
       </c>
       <c r="F49">
-        <v>-0.01546700726083798</v>
+        <v>-0.01038707071835824</v>
       </c>
       <c r="G49">
-        <v>0.004438185988002246</v>
+        <v>-0.00111126586120969</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -1846,22 +1846,22 @@
         </is>
       </c>
       <c r="B50">
-        <v>0.008968869413038479</v>
+        <v>0.008788476864251583</v>
       </c>
       <c r="C50">
-        <v>0.01032037099233754</v>
+        <v>0.007550867253398407</v>
       </c>
       <c r="D50">
-        <v>0.8690452523167536</v>
+        <v>1.163902975555049</v>
       </c>
       <c r="E50">
-        <v>0.4005828756665039</v>
+        <v>0.2653803932008639</v>
       </c>
       <c r="F50">
-        <v>-0.01332693660187534</v>
+        <v>-0.007524180079101623</v>
       </c>
       <c r="G50">
-        <v>0.03126467542795229</v>
+        <v>0.02510113380760479</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -1876,22 +1876,22 @@
         </is>
       </c>
       <c r="B51">
-        <v>0.006161137096994769</v>
+        <v>0.004813400751580831</v>
       </c>
       <c r="C51">
-        <v>0.01005326828334669</v>
+        <v>0.009040744510848332</v>
       </c>
       <c r="D51">
-        <v>0.6128491673897468</v>
+        <v>0.5324119872876674</v>
       </c>
       <c r="E51">
-        <v>0.5485887905084387</v>
+        <v>0.6017568468152734</v>
       </c>
       <c r="F51">
-        <v>-0.01515083961136484</v>
+        <v>-0.01435212144587201</v>
       </c>
       <c r="G51">
-        <v>0.02747311380535438</v>
+        <v>0.02397892294903367</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -1906,22 +1906,22 @@
         </is>
       </c>
       <c r="B52">
-        <v>-0.004674924773198265</v>
+        <v>-0.007340872051821893</v>
       </c>
       <c r="C52">
-        <v>0.0120690808061454</v>
+        <v>0.009853985547429184</v>
       </c>
       <c r="D52">
-        <v>-0.387347209641505</v>
+        <v>-0.744964767452603</v>
       </c>
       <c r="E52">
-        <v>0.702221125565577</v>
+        <v>0.4641776900074112</v>
       </c>
       <c r="F52">
-        <v>-0.02970466641142062</v>
+        <v>-0.02777678729015079</v>
       </c>
       <c r="G52">
-        <v>0.02035481686502408</v>
+        <v>0.013095043186507</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="B53">
-        <v>0.00614734229103138</v>
+        <v>0.006098230799847836</v>
       </c>
       <c r="C53">
-        <v>0.00235552201562642</v>
+        <v>1.607777097672607e-12</v>
       </c>
       <c r="D53">
-        <v>2.609757943356167</v>
+        <v>3792957872.503309</v>
       </c>
       <c r="E53">
-        <v>0.05943510125584527</v>
+        <v>2.898939647124406e-38</v>
       </c>
       <c r="F53">
-        <v>-0.0003926352794402354</v>
+        <v>0.006098230795383931</v>
       </c>
       <c r="G53">
-        <v>0.01268731986150299</v>
+        <v>0.006098230804311741</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -1966,22 +1966,22 @@
         </is>
       </c>
       <c r="B54">
-        <v>-0.002448567964962625</v>
+        <v>-0.003430084173343883</v>
       </c>
       <c r="C54">
-        <v>0.003042829875165164</v>
+        <v>0.003026569005079725</v>
       </c>
       <c r="D54">
-        <v>-0.8047009085020626</v>
+        <v>-1.133324291495389</v>
       </c>
       <c r="E54">
-        <v>0.423502505218009</v>
+        <v>0.2606406404591442</v>
       </c>
       <c r="F54">
-        <v>-0.008508888883137574</v>
+        <v>-0.009458018761960674</v>
       </c>
       <c r="G54">
-        <v>0.003611752953212324</v>
+        <v>0.002597850415272908</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -1996,22 +1996,22 @@
         </is>
       </c>
       <c r="B55">
-        <v>0.000855789027137074</v>
+        <v>0.0007784179475875967</v>
       </c>
       <c r="C55">
-        <v>0.001137627082773774</v>
+        <v>0.001858766839153078</v>
       </c>
       <c r="D55">
-        <v>0.7522579587772127</v>
+        <v>0.4187819209978332</v>
       </c>
       <c r="E55">
-        <v>0.4937417991793232</v>
+        <v>0.6968847772472083</v>
       </c>
       <c r="F55">
-        <v>-0.002302770118370615</v>
+        <v>-0.004382346144682941</v>
       </c>
       <c r="G55">
-        <v>0.004014348172644762</v>
+        <v>0.005939182039858135</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -2026,22 +2026,22 @@
         </is>
       </c>
       <c r="B56">
-        <v>-0.004508539662328285</v>
+        <v>-0.004702640673236329</v>
       </c>
       <c r="C56">
-        <v>0.002286486523957765</v>
+        <v>0.002564393900494114</v>
       </c>
       <c r="D56">
-        <v>-1.971819914566688</v>
+        <v>-1.833821501575952</v>
       </c>
       <c r="E56">
-        <v>0.07212798433115794</v>
+        <v>0.09158635017153074</v>
       </c>
       <c r="F56">
-        <v>-0.009490365835588689</v>
+        <v>-0.01028997500395329</v>
       </c>
       <c r="G56">
-        <v>0.0004732865109321185</v>
+        <v>0.0008846936574806322</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -2056,22 +2056,22 @@
         </is>
       </c>
       <c r="B57">
-        <v>0.005891058443698111</v>
+        <v>0.005876583670528499</v>
       </c>
       <c r="C57">
-        <v>0.003848742713800759</v>
+        <v>0.002380114399943723</v>
       </c>
       <c r="D57">
-        <v>1.530644909719231</v>
+        <v>2.469034123178049</v>
       </c>
       <c r="E57">
-        <v>0.1366938190927863</v>
+        <v>0.01968056424275602</v>
       </c>
       <c r="F57">
-        <v>-0.001980504239509465</v>
+        <v>0.001008703148096705</v>
       </c>
       <c r="G57">
-        <v>0.01376262112690569</v>
+        <v>0.01074446419296029</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -2086,22 +2086,22 @@
         </is>
       </c>
       <c r="B58">
-        <v>0.02568475573114374</v>
+        <v>0.02689274328908206</v>
       </c>
       <c r="C58">
-        <v>0.01084880572149514</v>
+        <v>0.01055121982168352</v>
       </c>
       <c r="D58">
-        <v>2.367519189716301</v>
+        <v>2.548780495864141</v>
       </c>
       <c r="E58">
-        <v>0.0213873933602297</v>
+        <v>0.01357820474203594</v>
       </c>
       <c r="F58">
-        <v>0.003951986358974913</v>
+        <v>0.005756110108770859</v>
       </c>
       <c r="G58">
-        <v>0.04741752510331257</v>
+        <v>0.04802937646939327</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -2116,22 +2116,22 @@
         </is>
       </c>
       <c r="B59">
-        <v>-0.001978379793333932</v>
+        <v>-0.001928965420824368</v>
       </c>
       <c r="C59">
-        <v>0.000970875686804366</v>
+        <v>0.002706847696461631</v>
       </c>
       <c r="D59">
-        <v>-2.037727198469417</v>
+        <v>-0.71262429110655</v>
       </c>
       <c r="E59">
-        <v>0.06246267039034801</v>
+        <v>0.4886724680015563</v>
       </c>
       <c r="F59">
-        <v>-0.00407582919642787</v>
+        <v>-0.007776754342078585</v>
       </c>
       <c r="G59">
-        <v>0.0001190696097600062</v>
+        <v>0.003918823500429849</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -2146,22 +2146,22 @@
         </is>
       </c>
       <c r="B60">
-        <v>0.001550028419858519</v>
+        <v>0.001582458763537575</v>
       </c>
       <c r="C60">
-        <v>0.001057000804154303</v>
+        <v>0.001053969469880196</v>
       </c>
       <c r="D60">
-        <v>1.466440151953037</v>
+        <v>1.501427516413214</v>
       </c>
       <c r="E60">
-        <v>0.1807021662320885</v>
+        <v>0.1716416960922016</v>
       </c>
       <c r="F60">
-        <v>-0.0008874198054354332</v>
+        <v>-0.0008479991923851006</v>
       </c>
       <c r="G60">
-        <v>0.003987476645152471</v>
+        <v>0.00401291671946025</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -2176,22 +2176,22 @@
         </is>
       </c>
       <c r="B61">
-        <v>-0.008013249793736084</v>
+        <v>-0.0075641392334572</v>
       </c>
       <c r="C61">
-        <v>0.003772852739750156</v>
+        <v>0.003541517817377768</v>
       </c>
       <c r="D61">
-        <v>-2.123923287360199</v>
+        <v>-2.135846725474865</v>
       </c>
       <c r="E61">
-        <v>0.06263703440726588</v>
+        <v>0.06143476149584273</v>
       </c>
       <c r="F61">
-        <v>-0.01654803564314473</v>
+        <v>-0.01557560913121578</v>
       </c>
       <c r="G61">
-        <v>0.0005215360556725633</v>
+        <v>0.0004473306643013831</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -2206,22 +2206,22 @@
         </is>
       </c>
       <c r="B62">
-        <v>0.001065260833916528</v>
+        <v>0.001304625995593636</v>
       </c>
       <c r="C62">
-        <v>0.00228399992994197</v>
+        <v>0.001857021340186932</v>
       </c>
       <c r="D62">
-        <v>0.4664014302065209</v>
+        <v>0.7025368892434536</v>
       </c>
       <c r="E62">
-        <v>0.6520111706575561</v>
+        <v>0.5001100814973487</v>
       </c>
       <c r="F62">
-        <v>-0.004101505967432298</v>
+        <v>-0.002896248130579353</v>
       </c>
       <c r="G62">
-        <v>0.006232027635265354</v>
+        <v>0.005505500121766625</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
